--- a/PO_Assay_Data_all.xlsx
+++ b/PO_Assay_Data_all.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linzm\Documents\Hillyer Lab\Hillyer_PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E07803-FD3D-4084-ABC6-30E56663DCFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F3A795-1D1A-483B-9EB8-71D3710110C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{F5BDF2D9-78B4-4F3A-B1D0-220B94154211}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$478</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="16">
   <si>
     <t>Treatment</t>
   </si>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BFC959-3018-473D-A899-D027EE4BF072}">
-  <dimension ref="A1:K330"/>
+  <dimension ref="A1:K617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="B191" sqref="B191:B197"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="H621" sqref="H621"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -11607,7 +11610,9675 @@
         <v>44261</v>
       </c>
     </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A331" t="s">
+        <v>11</v>
+      </c>
+      <c r="B331">
+        <v>30</v>
+      </c>
+      <c r="C331">
+        <v>2</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>0.308</v>
+      </c>
+      <c r="F331">
+        <v>7</v>
+      </c>
+      <c r="G331" s="1">
+        <v>44263</v>
+      </c>
+      <c r="H331" s="1">
+        <v>44270</v>
+      </c>
+      <c r="I331" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J331" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K331" s="2">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A332" t="s">
+        <v>11</v>
+      </c>
+      <c r="B332">
+        <v>30</v>
+      </c>
+      <c r="C332">
+        <v>2</v>
+      </c>
+      <c r="D332">
+        <v>5</v>
+      </c>
+      <c r="E332">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="F332">
+        <v>7</v>
+      </c>
+      <c r="G332" s="1">
+        <v>44263</v>
+      </c>
+      <c r="H332" s="1">
+        <v>44270</v>
+      </c>
+      <c r="I332" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J332" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K332" s="2">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A333" t="s">
+        <v>11</v>
+      </c>
+      <c r="B333">
+        <v>30</v>
+      </c>
+      <c r="C333">
+        <v>2</v>
+      </c>
+      <c r="D333">
+        <v>10</v>
+      </c>
+      <c r="E333">
+        <v>0.71</v>
+      </c>
+      <c r="F333">
+        <v>7</v>
+      </c>
+      <c r="G333" s="1">
+        <v>44263</v>
+      </c>
+      <c r="H333" s="1">
+        <v>44270</v>
+      </c>
+      <c r="I333" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J333" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K333" s="2">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A334" t="s">
+        <v>11</v>
+      </c>
+      <c r="B334">
+        <v>30</v>
+      </c>
+      <c r="C334">
+        <v>2</v>
+      </c>
+      <c r="D334">
+        <v>15</v>
+      </c>
+      <c r="E334">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="F334">
+        <v>7</v>
+      </c>
+      <c r="G334" s="1">
+        <v>44263</v>
+      </c>
+      <c r="H334" s="1">
+        <v>44270</v>
+      </c>
+      <c r="I334" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J334" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K334" s="2">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A335" t="s">
+        <v>11</v>
+      </c>
+      <c r="B335">
+        <v>30</v>
+      </c>
+      <c r="C335">
+        <v>2</v>
+      </c>
+      <c r="D335">
+        <v>20</v>
+      </c>
+      <c r="E335">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F335">
+        <v>7</v>
+      </c>
+      <c r="G335" s="1">
+        <v>44263</v>
+      </c>
+      <c r="H335" s="1">
+        <v>44270</v>
+      </c>
+      <c r="I335" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J335" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K335" s="2">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A336" t="s">
+        <v>11</v>
+      </c>
+      <c r="B336">
+        <v>30</v>
+      </c>
+      <c r="C336">
+        <v>2</v>
+      </c>
+      <c r="D336">
+        <v>25</v>
+      </c>
+      <c r="E336">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="F336">
+        <v>7</v>
+      </c>
+      <c r="G336" s="1">
+        <v>44263</v>
+      </c>
+      <c r="H336" s="1">
+        <v>44270</v>
+      </c>
+      <c r="I336" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J336" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K336" s="2">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A337" t="s">
+        <v>11</v>
+      </c>
+      <c r="B337">
+        <v>30</v>
+      </c>
+      <c r="C337">
+        <v>2</v>
+      </c>
+      <c r="D337">
+        <v>30</v>
+      </c>
+      <c r="E337">
+        <v>1.153</v>
+      </c>
+      <c r="F337">
+        <v>7</v>
+      </c>
+      <c r="G337" s="1">
+        <v>44263</v>
+      </c>
+      <c r="H337" s="1">
+        <v>44270</v>
+      </c>
+      <c r="I337" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J337" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K337" s="2">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A338" t="s">
+        <v>12</v>
+      </c>
+      <c r="B338">
+        <v>30</v>
+      </c>
+      <c r="C338">
+        <v>2</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>0.22</v>
+      </c>
+      <c r="F338">
+        <v>7</v>
+      </c>
+      <c r="G338" s="1">
+        <v>44263</v>
+      </c>
+      <c r="H338" s="1">
+        <v>44270</v>
+      </c>
+      <c r="I338" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J338" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K338" s="2">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A339" t="s">
+        <v>12</v>
+      </c>
+      <c r="B339">
+        <v>30</v>
+      </c>
+      <c r="C339">
+        <v>2</v>
+      </c>
+      <c r="D339">
+        <v>5</v>
+      </c>
+      <c r="E339">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="F339">
+        <v>7</v>
+      </c>
+      <c r="G339" s="1">
+        <v>44263</v>
+      </c>
+      <c r="H339" s="1">
+        <v>44270</v>
+      </c>
+      <c r="I339" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J339" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K339" s="2">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A340" t="s">
+        <v>12</v>
+      </c>
+      <c r="B340">
+        <v>30</v>
+      </c>
+      <c r="C340">
+        <v>2</v>
+      </c>
+      <c r="D340">
+        <v>10</v>
+      </c>
+      <c r="E340">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="F340">
+        <v>7</v>
+      </c>
+      <c r="G340" s="1">
+        <v>44263</v>
+      </c>
+      <c r="H340" s="1">
+        <v>44270</v>
+      </c>
+      <c r="I340" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J340" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K340" s="2">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A341" t="s">
+        <v>12</v>
+      </c>
+      <c r="B341">
+        <v>30</v>
+      </c>
+      <c r="C341">
+        <v>2</v>
+      </c>
+      <c r="D341">
+        <v>15</v>
+      </c>
+      <c r="E341">
+        <v>0.377</v>
+      </c>
+      <c r="F341">
+        <v>7</v>
+      </c>
+      <c r="G341" s="1">
+        <v>44263</v>
+      </c>
+      <c r="H341" s="1">
+        <v>44270</v>
+      </c>
+      <c r="I341" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J341" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K341" s="2">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A342" t="s">
+        <v>12</v>
+      </c>
+      <c r="B342">
+        <v>30</v>
+      </c>
+      <c r="C342">
+        <v>2</v>
+      </c>
+      <c r="D342">
+        <v>20</v>
+      </c>
+      <c r="E342">
+        <v>0.371</v>
+      </c>
+      <c r="F342">
+        <v>7</v>
+      </c>
+      <c r="G342" s="1">
+        <v>44263</v>
+      </c>
+      <c r="H342" s="1">
+        <v>44270</v>
+      </c>
+      <c r="I342" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J342" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K342" s="2">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A343" t="s">
+        <v>12</v>
+      </c>
+      <c r="B343">
+        <v>30</v>
+      </c>
+      <c r="C343">
+        <v>2</v>
+      </c>
+      <c r="D343">
+        <v>25</v>
+      </c>
+      <c r="E343">
+        <v>0.435</v>
+      </c>
+      <c r="F343">
+        <v>7</v>
+      </c>
+      <c r="G343" s="1">
+        <v>44263</v>
+      </c>
+      <c r="H343" s="1">
+        <v>44270</v>
+      </c>
+      <c r="I343" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J343" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K343" s="2">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A344" t="s">
+        <v>12</v>
+      </c>
+      <c r="B344">
+        <v>30</v>
+      </c>
+      <c r="C344">
+        <v>2</v>
+      </c>
+      <c r="D344">
+        <v>30</v>
+      </c>
+      <c r="E344">
+        <v>0.433</v>
+      </c>
+      <c r="F344">
+        <v>7</v>
+      </c>
+      <c r="G344" s="1">
+        <v>44263</v>
+      </c>
+      <c r="H344" s="1">
+        <v>44270</v>
+      </c>
+      <c r="I344" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J344" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K344" s="2">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A345" t="s">
+        <v>13</v>
+      </c>
+      <c r="B345">
+        <v>30</v>
+      </c>
+      <c r="C345">
+        <v>2</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F345">
+        <v>7</v>
+      </c>
+      <c r="G345" s="1">
+        <v>44263</v>
+      </c>
+      <c r="H345" s="1">
+        <v>44270</v>
+      </c>
+      <c r="I345" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J345" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K345" s="2">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A346" t="s">
+        <v>13</v>
+      </c>
+      <c r="B346">
+        <v>30</v>
+      </c>
+      <c r="C346">
+        <v>2</v>
+      </c>
+      <c r="D346">
+        <v>5</v>
+      </c>
+      <c r="E346">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F346">
+        <v>7</v>
+      </c>
+      <c r="G346" s="1">
+        <v>44263</v>
+      </c>
+      <c r="H346" s="1">
+        <v>44270</v>
+      </c>
+      <c r="I346" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J346" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K346" s="2">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A347" t="s">
+        <v>13</v>
+      </c>
+      <c r="B347">
+        <v>30</v>
+      </c>
+      <c r="C347">
+        <v>2</v>
+      </c>
+      <c r="D347">
+        <v>10</v>
+      </c>
+      <c r="E347">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F347">
+        <v>7</v>
+      </c>
+      <c r="G347" s="1">
+        <v>44263</v>
+      </c>
+      <c r="H347" s="1">
+        <v>44270</v>
+      </c>
+      <c r="I347" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J347" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K347" s="2">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A348" t="s">
+        <v>13</v>
+      </c>
+      <c r="B348">
+        <v>30</v>
+      </c>
+      <c r="C348">
+        <v>2</v>
+      </c>
+      <c r="D348">
+        <v>15</v>
+      </c>
+      <c r="E348">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F348">
+        <v>7</v>
+      </c>
+      <c r="G348" s="1">
+        <v>44263</v>
+      </c>
+      <c r="H348" s="1">
+        <v>44270</v>
+      </c>
+      <c r="I348" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J348" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K348" s="2">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A349" t="s">
+        <v>13</v>
+      </c>
+      <c r="B349">
+        <v>30</v>
+      </c>
+      <c r="C349">
+        <v>2</v>
+      </c>
+      <c r="D349">
+        <v>20</v>
+      </c>
+      <c r="E349">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F349">
+        <v>7</v>
+      </c>
+      <c r="G349" s="1">
+        <v>44263</v>
+      </c>
+      <c r="H349" s="1">
+        <v>44270</v>
+      </c>
+      <c r="I349" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J349" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K349" s="2">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A350" t="s">
+        <v>13</v>
+      </c>
+      <c r="B350">
+        <v>30</v>
+      </c>
+      <c r="C350">
+        <v>2</v>
+      </c>
+      <c r="D350">
+        <v>25</v>
+      </c>
+      <c r="E350">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F350">
+        <v>7</v>
+      </c>
+      <c r="G350" s="1">
+        <v>44263</v>
+      </c>
+      <c r="H350" s="1">
+        <v>44270</v>
+      </c>
+      <c r="I350" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J350" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K350" s="2">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A351" t="s">
+        <v>13</v>
+      </c>
+      <c r="B351">
+        <v>30</v>
+      </c>
+      <c r="C351">
+        <v>2</v>
+      </c>
+      <c r="D351">
+        <v>30</v>
+      </c>
+      <c r="E351">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="F351">
+        <v>7</v>
+      </c>
+      <c r="G351" s="1">
+        <v>44263</v>
+      </c>
+      <c r="H351" s="1">
+        <v>44270</v>
+      </c>
+      <c r="I351" s="1">
+        <v>44271</v>
+      </c>
+      <c r="J351" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K351" s="2">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A352" t="s">
+        <v>11</v>
+      </c>
+      <c r="B352">
+        <v>30</v>
+      </c>
+      <c r="C352">
+        <v>3</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F352">
+        <v>7</v>
+      </c>
+      <c r="G352" s="1">
+        <v>44265</v>
+      </c>
+      <c r="H352" s="1">
+        <v>44272</v>
+      </c>
+      <c r="I352" s="1">
+        <v>44273</v>
+      </c>
+      <c r="J352" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K352" s="2">
+        <v>10453.5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A353" t="s">
+        <v>11</v>
+      </c>
+      <c r="B353">
+        <v>30</v>
+      </c>
+      <c r="C353">
+        <v>3</v>
+      </c>
+      <c r="D353">
+        <v>5</v>
+      </c>
+      <c r="E353">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F353">
+        <v>7</v>
+      </c>
+      <c r="G353" s="1">
+        <v>44265</v>
+      </c>
+      <c r="H353" s="1">
+        <v>44272</v>
+      </c>
+      <c r="I353" s="1">
+        <v>44273</v>
+      </c>
+      <c r="J353" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K353" s="2">
+        <v>10453.5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A354" t="s">
+        <v>11</v>
+      </c>
+      <c r="B354">
+        <v>30</v>
+      </c>
+      <c r="C354">
+        <v>3</v>
+      </c>
+      <c r="D354">
+        <v>10</v>
+      </c>
+      <c r="E354">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F354">
+        <v>7</v>
+      </c>
+      <c r="G354" s="1">
+        <v>44265</v>
+      </c>
+      <c r="H354" s="1">
+        <v>44272</v>
+      </c>
+      <c r="I354" s="1">
+        <v>44273</v>
+      </c>
+      <c r="J354" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K354" s="2">
+        <v>10453.5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A355" t="s">
+        <v>11</v>
+      </c>
+      <c r="B355">
+        <v>30</v>
+      </c>
+      <c r="C355">
+        <v>3</v>
+      </c>
+      <c r="D355">
+        <v>15</v>
+      </c>
+      <c r="E355">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F355">
+        <v>7</v>
+      </c>
+      <c r="G355" s="1">
+        <v>44265</v>
+      </c>
+      <c r="H355" s="1">
+        <v>44272</v>
+      </c>
+      <c r="I355" s="1">
+        <v>44273</v>
+      </c>
+      <c r="J355" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K355" s="2">
+        <v>10453.5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A356" t="s">
+        <v>11</v>
+      </c>
+      <c r="B356">
+        <v>30</v>
+      </c>
+      <c r="C356">
+        <v>3</v>
+      </c>
+      <c r="D356">
+        <v>20</v>
+      </c>
+      <c r="E356">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F356">
+        <v>7</v>
+      </c>
+      <c r="G356" s="1">
+        <v>44265</v>
+      </c>
+      <c r="H356" s="1">
+        <v>44272</v>
+      </c>
+      <c r="I356" s="1">
+        <v>44273</v>
+      </c>
+      <c r="J356" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K356" s="2">
+        <v>10453.5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A357" t="s">
+        <v>11</v>
+      </c>
+      <c r="B357">
+        <v>30</v>
+      </c>
+      <c r="C357">
+        <v>3</v>
+      </c>
+      <c r="D357">
+        <v>25</v>
+      </c>
+      <c r="E357">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F357">
+        <v>7</v>
+      </c>
+      <c r="G357" s="1">
+        <v>44265</v>
+      </c>
+      <c r="H357" s="1">
+        <v>44272</v>
+      </c>
+      <c r="I357" s="1">
+        <v>44273</v>
+      </c>
+      <c r="J357" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K357" s="2">
+        <v>10453.5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A358" t="s">
+        <v>11</v>
+      </c>
+      <c r="B358">
+        <v>30</v>
+      </c>
+      <c r="C358">
+        <v>3</v>
+      </c>
+      <c r="D358">
+        <v>30</v>
+      </c>
+      <c r="E358">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F358">
+        <v>7</v>
+      </c>
+      <c r="G358" s="1">
+        <v>44265</v>
+      </c>
+      <c r="H358" s="1">
+        <v>44272</v>
+      </c>
+      <c r="I358" s="1">
+        <v>44273</v>
+      </c>
+      <c r="J358" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K358" s="2">
+        <v>10453.5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A359" t="s">
+        <v>13</v>
+      </c>
+      <c r="B359">
+        <v>30</v>
+      </c>
+      <c r="C359">
+        <v>3</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F359">
+        <v>7</v>
+      </c>
+      <c r="G359" s="1">
+        <v>44265</v>
+      </c>
+      <c r="H359" s="1">
+        <v>44272</v>
+      </c>
+      <c r="I359" s="1">
+        <v>44273</v>
+      </c>
+      <c r="J359" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K359" s="2">
+        <v>10453.5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A360" t="s">
+        <v>13</v>
+      </c>
+      <c r="B360">
+        <v>30</v>
+      </c>
+      <c r="C360">
+        <v>3</v>
+      </c>
+      <c r="D360">
+        <v>5</v>
+      </c>
+      <c r="E360">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F360">
+        <v>7</v>
+      </c>
+      <c r="G360" s="1">
+        <v>44265</v>
+      </c>
+      <c r="H360" s="1">
+        <v>44272</v>
+      </c>
+      <c r="I360" s="1">
+        <v>44273</v>
+      </c>
+      <c r="J360" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K360" s="2">
+        <v>10453.5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A361" t="s">
+        <v>13</v>
+      </c>
+      <c r="B361">
+        <v>30</v>
+      </c>
+      <c r="C361">
+        <v>3</v>
+      </c>
+      <c r="D361">
+        <v>10</v>
+      </c>
+      <c r="E361">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F361">
+        <v>7</v>
+      </c>
+      <c r="G361" s="1">
+        <v>44265</v>
+      </c>
+      <c r="H361" s="1">
+        <v>44272</v>
+      </c>
+      <c r="I361" s="1">
+        <v>44273</v>
+      </c>
+      <c r="J361" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K361" s="2">
+        <v>10453.5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A362" t="s">
+        <v>13</v>
+      </c>
+      <c r="B362">
+        <v>30</v>
+      </c>
+      <c r="C362">
+        <v>3</v>
+      </c>
+      <c r="D362">
+        <v>15</v>
+      </c>
+      <c r="E362">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F362">
+        <v>7</v>
+      </c>
+      <c r="G362" s="1">
+        <v>44265</v>
+      </c>
+      <c r="H362" s="1">
+        <v>44272</v>
+      </c>
+      <c r="I362" s="1">
+        <v>44273</v>
+      </c>
+      <c r="J362" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K362" s="2">
+        <v>10453.5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A363" t="s">
+        <v>13</v>
+      </c>
+      <c r="B363">
+        <v>30</v>
+      </c>
+      <c r="C363">
+        <v>3</v>
+      </c>
+      <c r="D363">
+        <v>20</v>
+      </c>
+      <c r="E363">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F363">
+        <v>7</v>
+      </c>
+      <c r="G363" s="1">
+        <v>44265</v>
+      </c>
+      <c r="H363" s="1">
+        <v>44272</v>
+      </c>
+      <c r="I363" s="1">
+        <v>44273</v>
+      </c>
+      <c r="J363" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K363" s="2">
+        <v>10453.5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A364" t="s">
+        <v>13</v>
+      </c>
+      <c r="B364">
+        <v>30</v>
+      </c>
+      <c r="C364">
+        <v>3</v>
+      </c>
+      <c r="D364">
+        <v>25</v>
+      </c>
+      <c r="E364">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F364">
+        <v>7</v>
+      </c>
+      <c r="G364" s="1">
+        <v>44265</v>
+      </c>
+      <c r="H364" s="1">
+        <v>44272</v>
+      </c>
+      <c r="I364" s="1">
+        <v>44273</v>
+      </c>
+      <c r="J364" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K364" s="2">
+        <v>10453.5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A365" t="s">
+        <v>13</v>
+      </c>
+      <c r="B365">
+        <v>30</v>
+      </c>
+      <c r="C365">
+        <v>3</v>
+      </c>
+      <c r="D365">
+        <v>30</v>
+      </c>
+      <c r="E365">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F365">
+        <v>7</v>
+      </c>
+      <c r="G365" s="1">
+        <v>44265</v>
+      </c>
+      <c r="H365" s="1">
+        <v>44272</v>
+      </c>
+      <c r="I365" s="1">
+        <v>44273</v>
+      </c>
+      <c r="J365" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K365" s="2">
+        <v>10453.5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A366" t="s">
+        <v>11</v>
+      </c>
+      <c r="B366">
+        <v>30</v>
+      </c>
+      <c r="C366">
+        <v>4</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>0.104</v>
+      </c>
+      <c r="F366">
+        <v>7</v>
+      </c>
+      <c r="G366" s="1">
+        <v>44266</v>
+      </c>
+      <c r="H366" s="1">
+        <v>44273</v>
+      </c>
+      <c r="I366" s="1">
+        <v>44274</v>
+      </c>
+      <c r="J366" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K366" s="2">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A367" t="s">
+        <v>11</v>
+      </c>
+      <c r="B367">
+        <v>30</v>
+      </c>
+      <c r="C367">
+        <v>4</v>
+      </c>
+      <c r="D367">
+        <v>5</v>
+      </c>
+      <c r="E367">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="F367">
+        <v>7</v>
+      </c>
+      <c r="G367" s="1">
+        <v>44266</v>
+      </c>
+      <c r="H367" s="1">
+        <v>44273</v>
+      </c>
+      <c r="I367" s="1">
+        <v>44274</v>
+      </c>
+      <c r="J367" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K367" s="2">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A368" t="s">
+        <v>11</v>
+      </c>
+      <c r="B368">
+        <v>30</v>
+      </c>
+      <c r="C368">
+        <v>4</v>
+      </c>
+      <c r="D368">
+        <v>10</v>
+      </c>
+      <c r="E368">
+        <v>0.105</v>
+      </c>
+      <c r="F368">
+        <v>7</v>
+      </c>
+      <c r="G368" s="1">
+        <v>44266</v>
+      </c>
+      <c r="H368" s="1">
+        <v>44273</v>
+      </c>
+      <c r="I368" s="1">
+        <v>44274</v>
+      </c>
+      <c r="J368" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K368" s="2">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A369" t="s">
+        <v>11</v>
+      </c>
+      <c r="B369">
+        <v>30</v>
+      </c>
+      <c r="C369">
+        <v>4</v>
+      </c>
+      <c r="D369">
+        <v>15</v>
+      </c>
+      <c r="E369">
+        <v>0.121</v>
+      </c>
+      <c r="F369">
+        <v>7</v>
+      </c>
+      <c r="G369" s="1">
+        <v>44266</v>
+      </c>
+      <c r="H369" s="1">
+        <v>44273</v>
+      </c>
+      <c r="I369" s="1">
+        <v>44274</v>
+      </c>
+      <c r="J369" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K369" s="2">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A370" t="s">
+        <v>11</v>
+      </c>
+      <c r="B370">
+        <v>30</v>
+      </c>
+      <c r="C370">
+        <v>4</v>
+      </c>
+      <c r="D370">
+        <v>20</v>
+      </c>
+      <c r="E370">
+        <v>0.128</v>
+      </c>
+      <c r="F370">
+        <v>7</v>
+      </c>
+      <c r="G370" s="1">
+        <v>44266</v>
+      </c>
+      <c r="H370" s="1">
+        <v>44273</v>
+      </c>
+      <c r="I370" s="1">
+        <v>44274</v>
+      </c>
+      <c r="J370" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K370" s="2">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A371" t="s">
+        <v>11</v>
+      </c>
+      <c r="B371">
+        <v>30</v>
+      </c>
+      <c r="C371">
+        <v>4</v>
+      </c>
+      <c r="D371">
+        <v>25</v>
+      </c>
+      <c r="E371">
+        <v>0.114</v>
+      </c>
+      <c r="F371">
+        <v>7</v>
+      </c>
+      <c r="G371" s="1">
+        <v>44266</v>
+      </c>
+      <c r="H371" s="1">
+        <v>44273</v>
+      </c>
+      <c r="I371" s="1">
+        <v>44274</v>
+      </c>
+      <c r="J371" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K371" s="2">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A372" t="s">
+        <v>11</v>
+      </c>
+      <c r="B372">
+        <v>30</v>
+      </c>
+      <c r="C372">
+        <v>4</v>
+      </c>
+      <c r="D372">
+        <v>30</v>
+      </c>
+      <c r="E372">
+        <v>0.124</v>
+      </c>
+      <c r="F372">
+        <v>7</v>
+      </c>
+      <c r="G372" s="1">
+        <v>44266</v>
+      </c>
+      <c r="H372" s="1">
+        <v>44273</v>
+      </c>
+      <c r="I372" s="1">
+        <v>44274</v>
+      </c>
+      <c r="J372" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K372" s="2">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A373" t="s">
+        <v>12</v>
+      </c>
+      <c r="B373">
+        <v>30</v>
+      </c>
+      <c r="C373">
+        <v>4</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F373">
+        <v>7</v>
+      </c>
+      <c r="G373" s="1">
+        <v>44266</v>
+      </c>
+      <c r="H373" s="1">
+        <v>44273</v>
+      </c>
+      <c r="I373" s="1">
+        <v>44274</v>
+      </c>
+      <c r="J373" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K373" s="2">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A374" t="s">
+        <v>12</v>
+      </c>
+      <c r="B374">
+        <v>30</v>
+      </c>
+      <c r="C374">
+        <v>4</v>
+      </c>
+      <c r="D374">
+        <v>5</v>
+      </c>
+      <c r="E374">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F374">
+        <v>7</v>
+      </c>
+      <c r="G374" s="1">
+        <v>44266</v>
+      </c>
+      <c r="H374" s="1">
+        <v>44273</v>
+      </c>
+      <c r="I374" s="1">
+        <v>44274</v>
+      </c>
+      <c r="J374" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K374" s="2">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A375" t="s">
+        <v>12</v>
+      </c>
+      <c r="B375">
+        <v>30</v>
+      </c>
+      <c r="C375">
+        <v>4</v>
+      </c>
+      <c r="D375">
+        <v>10</v>
+      </c>
+      <c r="E375">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F375">
+        <v>7</v>
+      </c>
+      <c r="G375" s="1">
+        <v>44266</v>
+      </c>
+      <c r="H375" s="1">
+        <v>44273</v>
+      </c>
+      <c r="I375" s="1">
+        <v>44274</v>
+      </c>
+      <c r="J375" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K375" s="2">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A376" t="s">
+        <v>12</v>
+      </c>
+      <c r="B376">
+        <v>30</v>
+      </c>
+      <c r="C376">
+        <v>4</v>
+      </c>
+      <c r="D376">
+        <v>15</v>
+      </c>
+      <c r="E376">
+        <v>0.05</v>
+      </c>
+      <c r="F376">
+        <v>7</v>
+      </c>
+      <c r="G376" s="1">
+        <v>44266</v>
+      </c>
+      <c r="H376" s="1">
+        <v>44273</v>
+      </c>
+      <c r="I376" s="1">
+        <v>44274</v>
+      </c>
+      <c r="J376" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K376" s="2">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A377" t="s">
+        <v>12</v>
+      </c>
+      <c r="B377">
+        <v>30</v>
+      </c>
+      <c r="C377">
+        <v>4</v>
+      </c>
+      <c r="D377">
+        <v>20</v>
+      </c>
+      <c r="E377">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F377">
+        <v>7</v>
+      </c>
+      <c r="G377" s="1">
+        <v>44266</v>
+      </c>
+      <c r="H377" s="1">
+        <v>44273</v>
+      </c>
+      <c r="I377" s="1">
+        <v>44274</v>
+      </c>
+      <c r="J377" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K377" s="2">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A378" t="s">
+        <v>12</v>
+      </c>
+      <c r="B378">
+        <v>30</v>
+      </c>
+      <c r="C378">
+        <v>4</v>
+      </c>
+      <c r="D378">
+        <v>25</v>
+      </c>
+      <c r="E378">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F378">
+        <v>7</v>
+      </c>
+      <c r="G378" s="1">
+        <v>44266</v>
+      </c>
+      <c r="H378" s="1">
+        <v>44273</v>
+      </c>
+      <c r="I378" s="1">
+        <v>44274</v>
+      </c>
+      <c r="J378" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K378" s="2">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A379" t="s">
+        <v>12</v>
+      </c>
+      <c r="B379">
+        <v>30</v>
+      </c>
+      <c r="C379">
+        <v>4</v>
+      </c>
+      <c r="D379">
+        <v>30</v>
+      </c>
+      <c r="E379">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="F379">
+        <v>7</v>
+      </c>
+      <c r="G379" s="1">
+        <v>44266</v>
+      </c>
+      <c r="H379" s="1">
+        <v>44273</v>
+      </c>
+      <c r="I379" s="1">
+        <v>44274</v>
+      </c>
+      <c r="J379" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K379" s="2">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A380" t="s">
+        <v>13</v>
+      </c>
+      <c r="B380">
+        <v>30</v>
+      </c>
+      <c r="C380">
+        <v>4</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F380">
+        <v>7</v>
+      </c>
+      <c r="G380" s="1">
+        <v>44266</v>
+      </c>
+      <c r="H380" s="1">
+        <v>44273</v>
+      </c>
+      <c r="I380" s="1">
+        <v>44274</v>
+      </c>
+      <c r="J380" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K380" s="2">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A381" t="s">
+        <v>13</v>
+      </c>
+      <c r="B381">
+        <v>30</v>
+      </c>
+      <c r="C381">
+        <v>4</v>
+      </c>
+      <c r="D381">
+        <v>5</v>
+      </c>
+      <c r="E381">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F381">
+        <v>7</v>
+      </c>
+      <c r="G381" s="1">
+        <v>44266</v>
+      </c>
+      <c r="H381" s="1">
+        <v>44273</v>
+      </c>
+      <c r="I381" s="1">
+        <v>44274</v>
+      </c>
+      <c r="J381" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K381" s="2">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A382" t="s">
+        <v>13</v>
+      </c>
+      <c r="B382">
+        <v>30</v>
+      </c>
+      <c r="C382">
+        <v>4</v>
+      </c>
+      <c r="D382">
+        <v>10</v>
+      </c>
+      <c r="E382">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F382">
+        <v>7</v>
+      </c>
+      <c r="G382" s="1">
+        <v>44266</v>
+      </c>
+      <c r="H382" s="1">
+        <v>44273</v>
+      </c>
+      <c r="I382" s="1">
+        <v>44274</v>
+      </c>
+      <c r="J382" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K382" s="2">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A383" t="s">
+        <v>13</v>
+      </c>
+      <c r="B383">
+        <v>30</v>
+      </c>
+      <c r="C383">
+        <v>4</v>
+      </c>
+      <c r="D383">
+        <v>15</v>
+      </c>
+      <c r="E383">
+        <v>0.03</v>
+      </c>
+      <c r="F383">
+        <v>7</v>
+      </c>
+      <c r="G383" s="1">
+        <v>44266</v>
+      </c>
+      <c r="H383" s="1">
+        <v>44273</v>
+      </c>
+      <c r="I383" s="1">
+        <v>44274</v>
+      </c>
+      <c r="J383" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K383" s="2">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A384" t="s">
+        <v>13</v>
+      </c>
+      <c r="B384">
+        <v>30</v>
+      </c>
+      <c r="C384">
+        <v>4</v>
+      </c>
+      <c r="D384">
+        <v>20</v>
+      </c>
+      <c r="E384">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F384">
+        <v>7</v>
+      </c>
+      <c r="G384" s="1">
+        <v>44266</v>
+      </c>
+      <c r="H384" s="1">
+        <v>44273</v>
+      </c>
+      <c r="I384" s="1">
+        <v>44274</v>
+      </c>
+      <c r="J384" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K384" s="2">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A385" t="s">
+        <v>13</v>
+      </c>
+      <c r="B385">
+        <v>30</v>
+      </c>
+      <c r="C385">
+        <v>4</v>
+      </c>
+      <c r="D385">
+        <v>25</v>
+      </c>
+      <c r="E385">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F385">
+        <v>7</v>
+      </c>
+      <c r="G385" s="1">
+        <v>44266</v>
+      </c>
+      <c r="H385" s="1">
+        <v>44273</v>
+      </c>
+      <c r="I385" s="1">
+        <v>44274</v>
+      </c>
+      <c r="J385" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K385" s="2">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A386" t="s">
+        <v>13</v>
+      </c>
+      <c r="B386">
+        <v>30</v>
+      </c>
+      <c r="C386">
+        <v>4</v>
+      </c>
+      <c r="D386">
+        <v>30</v>
+      </c>
+      <c r="E386">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F386">
+        <v>7</v>
+      </c>
+      <c r="G386" s="1">
+        <v>44266</v>
+      </c>
+      <c r="H386" s="1">
+        <v>44273</v>
+      </c>
+      <c r="I386" s="1">
+        <v>44274</v>
+      </c>
+      <c r="J386" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K386" s="2">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A387" t="s">
+        <v>11</v>
+      </c>
+      <c r="B387">
+        <v>30</v>
+      </c>
+      <c r="C387">
+        <v>2</v>
+      </c>
+      <c r="D387">
+        <v>0</v>
+      </c>
+      <c r="E387">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F387">
+        <v>3</v>
+      </c>
+      <c r="G387" s="1">
+        <v>44282</v>
+      </c>
+      <c r="H387" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I387" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J387" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K387" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A388" t="s">
+        <v>11</v>
+      </c>
+      <c r="B388">
+        <v>30</v>
+      </c>
+      <c r="C388">
+        <v>2</v>
+      </c>
+      <c r="D388">
+        <v>5</v>
+      </c>
+      <c r="E388">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F388">
+        <v>3</v>
+      </c>
+      <c r="G388" s="1">
+        <v>44282</v>
+      </c>
+      <c r="H388" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I388" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J388" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K388" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A389" t="s">
+        <v>11</v>
+      </c>
+      <c r="B389">
+        <v>30</v>
+      </c>
+      <c r="C389">
+        <v>2</v>
+      </c>
+      <c r="D389">
+        <v>10</v>
+      </c>
+      <c r="E389">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F389">
+        <v>3</v>
+      </c>
+      <c r="G389" s="1">
+        <v>44282</v>
+      </c>
+      <c r="H389" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I389" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J389" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K389" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A390" t="s">
+        <v>11</v>
+      </c>
+      <c r="B390">
+        <v>30</v>
+      </c>
+      <c r="C390">
+        <v>2</v>
+      </c>
+      <c r="D390">
+        <v>15</v>
+      </c>
+      <c r="E390">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F390">
+        <v>3</v>
+      </c>
+      <c r="G390" s="1">
+        <v>44282</v>
+      </c>
+      <c r="H390" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I390" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J390" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K390" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A391" t="s">
+        <v>11</v>
+      </c>
+      <c r="B391">
+        <v>30</v>
+      </c>
+      <c r="C391">
+        <v>2</v>
+      </c>
+      <c r="D391">
+        <v>20</v>
+      </c>
+      <c r="E391">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F391">
+        <v>3</v>
+      </c>
+      <c r="G391" s="1">
+        <v>44282</v>
+      </c>
+      <c r="H391" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I391" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J391" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K391" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A392" t="s">
+        <v>11</v>
+      </c>
+      <c r="B392">
+        <v>30</v>
+      </c>
+      <c r="C392">
+        <v>2</v>
+      </c>
+      <c r="D392">
+        <v>25</v>
+      </c>
+      <c r="E392">
+        <v>0.114</v>
+      </c>
+      <c r="F392">
+        <v>3</v>
+      </c>
+      <c r="G392" s="1">
+        <v>44282</v>
+      </c>
+      <c r="H392" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I392" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J392" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K392" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A393" t="s">
+        <v>11</v>
+      </c>
+      <c r="B393">
+        <v>30</v>
+      </c>
+      <c r="C393">
+        <v>2</v>
+      </c>
+      <c r="D393">
+        <v>30</v>
+      </c>
+      <c r="E393">
+        <v>0.122</v>
+      </c>
+      <c r="F393">
+        <v>3</v>
+      </c>
+      <c r="G393" s="1">
+        <v>44282</v>
+      </c>
+      <c r="H393" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I393" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J393" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K393" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A394" t="s">
+        <v>13</v>
+      </c>
+      <c r="B394">
+        <v>30</v>
+      </c>
+      <c r="C394">
+        <v>2</v>
+      </c>
+      <c r="D394">
+        <v>0</v>
+      </c>
+      <c r="E394">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F394">
+        <v>3</v>
+      </c>
+      <c r="G394" s="1">
+        <v>44282</v>
+      </c>
+      <c r="H394" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I394" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J394" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K394" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A395" t="s">
+        <v>13</v>
+      </c>
+      <c r="B395">
+        <v>30</v>
+      </c>
+      <c r="C395">
+        <v>2</v>
+      </c>
+      <c r="D395">
+        <v>5</v>
+      </c>
+      <c r="E395">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F395">
+        <v>3</v>
+      </c>
+      <c r="G395" s="1">
+        <v>44282</v>
+      </c>
+      <c r="H395" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I395" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J395" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K395" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A396" t="s">
+        <v>13</v>
+      </c>
+      <c r="B396">
+        <v>30</v>
+      </c>
+      <c r="C396">
+        <v>2</v>
+      </c>
+      <c r="D396">
+        <v>10</v>
+      </c>
+      <c r="E396">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F396">
+        <v>3</v>
+      </c>
+      <c r="G396" s="1">
+        <v>44282</v>
+      </c>
+      <c r="H396" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I396" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J396" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K396" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A397" t="s">
+        <v>13</v>
+      </c>
+      <c r="B397">
+        <v>30</v>
+      </c>
+      <c r="C397">
+        <v>2</v>
+      </c>
+      <c r="D397">
+        <v>15</v>
+      </c>
+      <c r="E397">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F397">
+        <v>3</v>
+      </c>
+      <c r="G397" s="1">
+        <v>44282</v>
+      </c>
+      <c r="H397" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I397" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J397" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K397" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A398" t="s">
+        <v>13</v>
+      </c>
+      <c r="B398">
+        <v>30</v>
+      </c>
+      <c r="C398">
+        <v>2</v>
+      </c>
+      <c r="D398">
+        <v>20</v>
+      </c>
+      <c r="E398">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F398">
+        <v>3</v>
+      </c>
+      <c r="G398" s="1">
+        <v>44282</v>
+      </c>
+      <c r="H398" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I398" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J398" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K398" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A399" t="s">
+        <v>13</v>
+      </c>
+      <c r="B399">
+        <v>30</v>
+      </c>
+      <c r="C399">
+        <v>2</v>
+      </c>
+      <c r="D399">
+        <v>25</v>
+      </c>
+      <c r="E399">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F399">
+        <v>3</v>
+      </c>
+      <c r="G399" s="1">
+        <v>44282</v>
+      </c>
+      <c r="H399" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I399" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J399" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K399" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A400" t="s">
+        <v>13</v>
+      </c>
+      <c r="B400">
+        <v>30</v>
+      </c>
+      <c r="C400">
+        <v>2</v>
+      </c>
+      <c r="D400">
+        <v>30</v>
+      </c>
+      <c r="E400">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F400">
+        <v>3</v>
+      </c>
+      <c r="G400" s="1">
+        <v>44282</v>
+      </c>
+      <c r="H400" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I400" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J400" s="1">
+        <v>44294</v>
+      </c>
+      <c r="K400" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A401" t="s">
+        <v>14</v>
+      </c>
+      <c r="B401" t="s">
+        <v>15</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
+      <c r="D401">
+        <v>0</v>
+      </c>
+      <c r="E401">
+        <v>0</v>
+      </c>
+      <c r="F401">
+        <v>0</v>
+      </c>
+      <c r="J401" s="1">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A402" t="s">
+        <v>14</v>
+      </c>
+      <c r="B402" t="s">
+        <v>15</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+      <c r="D402">
+        <v>5</v>
+      </c>
+      <c r="E402">
+        <v>0</v>
+      </c>
+      <c r="F402">
+        <v>0</v>
+      </c>
+      <c r="J402" s="1">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A403" t="s">
+        <v>14</v>
+      </c>
+      <c r="B403" t="s">
+        <v>15</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+      <c r="D403">
+        <v>10</v>
+      </c>
+      <c r="E403">
+        <v>0</v>
+      </c>
+      <c r="F403">
+        <v>0</v>
+      </c>
+      <c r="J403" s="1">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A404" t="s">
+        <v>14</v>
+      </c>
+      <c r="B404" t="s">
+        <v>15</v>
+      </c>
+      <c r="C404">
+        <v>0</v>
+      </c>
+      <c r="D404">
+        <v>15</v>
+      </c>
+      <c r="E404">
+        <v>1E-3</v>
+      </c>
+      <c r="F404">
+        <v>0</v>
+      </c>
+      <c r="J404" s="1">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A405" t="s">
+        <v>14</v>
+      </c>
+      <c r="B405" t="s">
+        <v>15</v>
+      </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
+      <c r="D405">
+        <v>20</v>
+      </c>
+      <c r="E405">
+        <v>2E-3</v>
+      </c>
+      <c r="F405">
+        <v>0</v>
+      </c>
+      <c r="J405" s="1">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A406" t="s">
+        <v>14</v>
+      </c>
+      <c r="B406" t="s">
+        <v>15</v>
+      </c>
+      <c r="C406">
+        <v>0</v>
+      </c>
+      <c r="D406">
+        <v>25</v>
+      </c>
+      <c r="E406">
+        <v>2E-3</v>
+      </c>
+      <c r="F406">
+        <v>0</v>
+      </c>
+      <c r="J406" s="1">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A407" t="s">
+        <v>14</v>
+      </c>
+      <c r="B407" t="s">
+        <v>15</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+      <c r="D407">
+        <v>30</v>
+      </c>
+      <c r="E407">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F407">
+        <v>0</v>
+      </c>
+      <c r="J407" s="1">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A408" t="s">
+        <v>11</v>
+      </c>
+      <c r="B408">
+        <v>30</v>
+      </c>
+      <c r="C408">
+        <v>2</v>
+      </c>
+      <c r="D408">
+        <v>0</v>
+      </c>
+      <c r="E408">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F408">
+        <v>1</v>
+      </c>
+      <c r="G408" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H408" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I408" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J408" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K408" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A409" t="s">
+        <v>11</v>
+      </c>
+      <c r="B409">
+        <v>30</v>
+      </c>
+      <c r="C409">
+        <v>2</v>
+      </c>
+      <c r="D409">
+        <v>5</v>
+      </c>
+      <c r="E409">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F409">
+        <v>1</v>
+      </c>
+      <c r="G409" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H409" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I409" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J409" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K409" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A410" t="s">
+        <v>11</v>
+      </c>
+      <c r="B410">
+        <v>30</v>
+      </c>
+      <c r="C410">
+        <v>2</v>
+      </c>
+      <c r="D410">
+        <v>10</v>
+      </c>
+      <c r="E410">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F410">
+        <v>1</v>
+      </c>
+      <c r="G410" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H410" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I410" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J410" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K410" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A411" t="s">
+        <v>11</v>
+      </c>
+      <c r="B411">
+        <v>30</v>
+      </c>
+      <c r="C411">
+        <v>2</v>
+      </c>
+      <c r="D411">
+        <v>15</v>
+      </c>
+      <c r="E411">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F411">
+        <v>1</v>
+      </c>
+      <c r="G411" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H411" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I411" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J411" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K411" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A412" t="s">
+        <v>11</v>
+      </c>
+      <c r="B412">
+        <v>30</v>
+      </c>
+      <c r="C412">
+        <v>2</v>
+      </c>
+      <c r="D412">
+        <v>20</v>
+      </c>
+      <c r="E412">
+        <v>0.03</v>
+      </c>
+      <c r="F412">
+        <v>1</v>
+      </c>
+      <c r="G412" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H412" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I412" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J412" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K412" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A413" t="s">
+        <v>11</v>
+      </c>
+      <c r="B413">
+        <v>30</v>
+      </c>
+      <c r="C413">
+        <v>2</v>
+      </c>
+      <c r="D413">
+        <v>25</v>
+      </c>
+      <c r="E413">
+        <v>0.04</v>
+      </c>
+      <c r="F413">
+        <v>1</v>
+      </c>
+      <c r="G413" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H413" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I413" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J413" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K413" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A414" t="s">
+        <v>11</v>
+      </c>
+      <c r="B414">
+        <v>30</v>
+      </c>
+      <c r="C414">
+        <v>2</v>
+      </c>
+      <c r="D414">
+        <v>30</v>
+      </c>
+      <c r="E414">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F414">
+        <v>1</v>
+      </c>
+      <c r="G414" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H414" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I414" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J414" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K414" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A415" t="s">
+        <v>12</v>
+      </c>
+      <c r="B415">
+        <v>30</v>
+      </c>
+      <c r="C415">
+        <v>2</v>
+      </c>
+      <c r="D415">
+        <v>0</v>
+      </c>
+      <c r="E415">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F415">
+        <v>1</v>
+      </c>
+      <c r="G415" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H415" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I415" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J415" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K415" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A416" t="s">
+        <v>12</v>
+      </c>
+      <c r="B416">
+        <v>30</v>
+      </c>
+      <c r="C416">
+        <v>2</v>
+      </c>
+      <c r="D416">
+        <v>5</v>
+      </c>
+      <c r="E416">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F416">
+        <v>1</v>
+      </c>
+      <c r="G416" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H416" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I416" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J416" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K416" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A417" t="s">
+        <v>12</v>
+      </c>
+      <c r="B417">
+        <v>30</v>
+      </c>
+      <c r="C417">
+        <v>2</v>
+      </c>
+      <c r="D417">
+        <v>10</v>
+      </c>
+      <c r="E417">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F417">
+        <v>1</v>
+      </c>
+      <c r="G417" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H417" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I417" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J417" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K417" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A418" t="s">
+        <v>12</v>
+      </c>
+      <c r="B418">
+        <v>30</v>
+      </c>
+      <c r="C418">
+        <v>2</v>
+      </c>
+      <c r="D418">
+        <v>15</v>
+      </c>
+      <c r="E418">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F418">
+        <v>1</v>
+      </c>
+      <c r="G418" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H418" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I418" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J418" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K418" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A419" t="s">
+        <v>12</v>
+      </c>
+      <c r="B419">
+        <v>30</v>
+      </c>
+      <c r="C419">
+        <v>2</v>
+      </c>
+      <c r="D419">
+        <v>20</v>
+      </c>
+      <c r="E419">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F419">
+        <v>1</v>
+      </c>
+      <c r="G419" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H419" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I419" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J419" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K419" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A420" t="s">
+        <v>12</v>
+      </c>
+      <c r="B420">
+        <v>30</v>
+      </c>
+      <c r="C420">
+        <v>2</v>
+      </c>
+      <c r="D420">
+        <v>25</v>
+      </c>
+      <c r="E420">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F420">
+        <v>1</v>
+      </c>
+      <c r="G420" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H420" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I420" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J420" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K420" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A421" t="s">
+        <v>12</v>
+      </c>
+      <c r="B421">
+        <v>30</v>
+      </c>
+      <c r="C421">
+        <v>2</v>
+      </c>
+      <c r="D421">
+        <v>30</v>
+      </c>
+      <c r="E421">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F421">
+        <v>1</v>
+      </c>
+      <c r="G421" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H421" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I421" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J421" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K421" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A422" t="s">
+        <v>13</v>
+      </c>
+      <c r="B422">
+        <v>30</v>
+      </c>
+      <c r="C422">
+        <v>2</v>
+      </c>
+      <c r="D422">
+        <v>0</v>
+      </c>
+      <c r="E422">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F422">
+        <v>1</v>
+      </c>
+      <c r="G422" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H422" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I422" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J422" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K422" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A423" t="s">
+        <v>13</v>
+      </c>
+      <c r="B423">
+        <v>30</v>
+      </c>
+      <c r="C423">
+        <v>2</v>
+      </c>
+      <c r="D423">
+        <v>5</v>
+      </c>
+      <c r="E423">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F423">
+        <v>1</v>
+      </c>
+      <c r="G423" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H423" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I423" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J423" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K423" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A424" t="s">
+        <v>13</v>
+      </c>
+      <c r="B424">
+        <v>30</v>
+      </c>
+      <c r="C424">
+        <v>2</v>
+      </c>
+      <c r="D424">
+        <v>10</v>
+      </c>
+      <c r="E424">
+        <v>0.04</v>
+      </c>
+      <c r="F424">
+        <v>1</v>
+      </c>
+      <c r="G424" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H424" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I424" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J424" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K424" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A425" t="s">
+        <v>13</v>
+      </c>
+      <c r="B425">
+        <v>30</v>
+      </c>
+      <c r="C425">
+        <v>2</v>
+      </c>
+      <c r="D425">
+        <v>15</v>
+      </c>
+      <c r="E425">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F425">
+        <v>1</v>
+      </c>
+      <c r="G425" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H425" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I425" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J425" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K425" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A426" t="s">
+        <v>13</v>
+      </c>
+      <c r="B426">
+        <v>30</v>
+      </c>
+      <c r="C426">
+        <v>2</v>
+      </c>
+      <c r="D426">
+        <v>20</v>
+      </c>
+      <c r="E426">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F426">
+        <v>1</v>
+      </c>
+      <c r="G426" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H426" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I426" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J426" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K426" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A427" t="s">
+        <v>13</v>
+      </c>
+      <c r="B427">
+        <v>30</v>
+      </c>
+      <c r="C427">
+        <v>2</v>
+      </c>
+      <c r="D427">
+        <v>25</v>
+      </c>
+      <c r="E427">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F427">
+        <v>1</v>
+      </c>
+      <c r="G427" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H427" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I427" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J427" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K427" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A428" t="s">
+        <v>13</v>
+      </c>
+      <c r="B428">
+        <v>30</v>
+      </c>
+      <c r="C428">
+        <v>2</v>
+      </c>
+      <c r="D428">
+        <v>30</v>
+      </c>
+      <c r="E428">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F428">
+        <v>1</v>
+      </c>
+      <c r="G428" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H428" s="1">
+        <v>44285</v>
+      </c>
+      <c r="I428" s="1">
+        <v>44286</v>
+      </c>
+      <c r="J428" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K428" s="2">
+        <v>9142.5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A429" t="s">
+        <v>11</v>
+      </c>
+      <c r="B429">
+        <v>30</v>
+      </c>
+      <c r="C429">
+        <v>3</v>
+      </c>
+      <c r="D429">
+        <v>0</v>
+      </c>
+      <c r="E429">
+        <v>0.113</v>
+      </c>
+      <c r="F429">
+        <v>3</v>
+      </c>
+      <c r="G429" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H429" s="1">
+        <v>44291</v>
+      </c>
+      <c r="I429" s="1">
+        <v>44292</v>
+      </c>
+      <c r="J429" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K429" s="2">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A430" t="s">
+        <v>11</v>
+      </c>
+      <c r="B430">
+        <v>30</v>
+      </c>
+      <c r="C430">
+        <v>3</v>
+      </c>
+      <c r="D430">
+        <v>5</v>
+      </c>
+      <c r="E430">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F430">
+        <v>3</v>
+      </c>
+      <c r="G430" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H430" s="1">
+        <v>44291</v>
+      </c>
+      <c r="I430" s="1">
+        <v>44292</v>
+      </c>
+      <c r="J430" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K430" s="2">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A431" t="s">
+        <v>11</v>
+      </c>
+      <c r="B431">
+        <v>30</v>
+      </c>
+      <c r="C431">
+        <v>3</v>
+      </c>
+      <c r="D431">
+        <v>10</v>
+      </c>
+      <c r="E431">
+        <v>0.158</v>
+      </c>
+      <c r="F431">
+        <v>3</v>
+      </c>
+      <c r="G431" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H431" s="1">
+        <v>44291</v>
+      </c>
+      <c r="I431" s="1">
+        <v>44292</v>
+      </c>
+      <c r="J431" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K431" s="2">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A432" t="s">
+        <v>11</v>
+      </c>
+      <c r="B432">
+        <v>30</v>
+      </c>
+      <c r="C432">
+        <v>3</v>
+      </c>
+      <c r="D432">
+        <v>15</v>
+      </c>
+      <c r="E432">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F432">
+        <v>3</v>
+      </c>
+      <c r="G432" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H432" s="1">
+        <v>44291</v>
+      </c>
+      <c r="I432" s="1">
+        <v>44292</v>
+      </c>
+      <c r="J432" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K432" s="2">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A433" t="s">
+        <v>11</v>
+      </c>
+      <c r="B433">
+        <v>30</v>
+      </c>
+      <c r="C433">
+        <v>3</v>
+      </c>
+      <c r="D433">
+        <v>20</v>
+      </c>
+      <c r="E433">
+        <v>0.187</v>
+      </c>
+      <c r="F433">
+        <v>3</v>
+      </c>
+      <c r="G433" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H433" s="1">
+        <v>44291</v>
+      </c>
+      <c r="I433" s="1">
+        <v>44292</v>
+      </c>
+      <c r="J433" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K433" s="2">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A434" t="s">
+        <v>11</v>
+      </c>
+      <c r="B434">
+        <v>30</v>
+      </c>
+      <c r="C434">
+        <v>3</v>
+      </c>
+      <c r="D434">
+        <v>25</v>
+      </c>
+      <c r="E434">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F434">
+        <v>3</v>
+      </c>
+      <c r="G434" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H434" s="1">
+        <v>44291</v>
+      </c>
+      <c r="I434" s="1">
+        <v>44292</v>
+      </c>
+      <c r="J434" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K434" s="2">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A435" t="s">
+        <v>11</v>
+      </c>
+      <c r="B435">
+        <v>30</v>
+      </c>
+      <c r="C435">
+        <v>3</v>
+      </c>
+      <c r="D435">
+        <v>30</v>
+      </c>
+      <c r="E435">
+        <v>0.151</v>
+      </c>
+      <c r="F435">
+        <v>3</v>
+      </c>
+      <c r="G435" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H435" s="1">
+        <v>44291</v>
+      </c>
+      <c r="I435" s="1">
+        <v>44292</v>
+      </c>
+      <c r="J435" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K435" s="2">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A436" t="s">
+        <v>12</v>
+      </c>
+      <c r="B436">
+        <v>30</v>
+      </c>
+      <c r="C436">
+        <v>3</v>
+      </c>
+      <c r="D436">
+        <v>0</v>
+      </c>
+      <c r="E436">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F436">
+        <v>3</v>
+      </c>
+      <c r="G436" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H436" s="1">
+        <v>44291</v>
+      </c>
+      <c r="I436" s="1">
+        <v>44292</v>
+      </c>
+      <c r="J436" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K436" s="2">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A437" t="s">
+        <v>12</v>
+      </c>
+      <c r="B437">
+        <v>30</v>
+      </c>
+      <c r="C437">
+        <v>3</v>
+      </c>
+      <c r="D437">
+        <v>5</v>
+      </c>
+      <c r="E437">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F437">
+        <v>3</v>
+      </c>
+      <c r="G437" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H437" s="1">
+        <v>44291</v>
+      </c>
+      <c r="I437" s="1">
+        <v>44292</v>
+      </c>
+      <c r="J437" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K437" s="2">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A438" t="s">
+        <v>12</v>
+      </c>
+      <c r="B438">
+        <v>30</v>
+      </c>
+      <c r="C438">
+        <v>3</v>
+      </c>
+      <c r="D438">
+        <v>10</v>
+      </c>
+      <c r="E438">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F438">
+        <v>3</v>
+      </c>
+      <c r="G438" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H438" s="1">
+        <v>44291</v>
+      </c>
+      <c r="I438" s="1">
+        <v>44292</v>
+      </c>
+      <c r="J438" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K438" s="2">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A439" t="s">
+        <v>12</v>
+      </c>
+      <c r="B439">
+        <v>30</v>
+      </c>
+      <c r="C439">
+        <v>3</v>
+      </c>
+      <c r="D439">
+        <v>15</v>
+      </c>
+      <c r="E439">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F439">
+        <v>3</v>
+      </c>
+      <c r="G439" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H439" s="1">
+        <v>44291</v>
+      </c>
+      <c r="I439" s="1">
+        <v>44292</v>
+      </c>
+      <c r="J439" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K439" s="2">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A440" t="s">
+        <v>12</v>
+      </c>
+      <c r="B440">
+        <v>30</v>
+      </c>
+      <c r="C440">
+        <v>3</v>
+      </c>
+      <c r="D440">
+        <v>20</v>
+      </c>
+      <c r="E440">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F440">
+        <v>3</v>
+      </c>
+      <c r="G440" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H440" s="1">
+        <v>44291</v>
+      </c>
+      <c r="I440" s="1">
+        <v>44292</v>
+      </c>
+      <c r="J440" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K440" s="2">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A441" t="s">
+        <v>12</v>
+      </c>
+      <c r="B441">
+        <v>30</v>
+      </c>
+      <c r="C441">
+        <v>3</v>
+      </c>
+      <c r="D441">
+        <v>25</v>
+      </c>
+      <c r="E441">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F441">
+        <v>3</v>
+      </c>
+      <c r="G441" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H441" s="1">
+        <v>44291</v>
+      </c>
+      <c r="I441" s="1">
+        <v>44292</v>
+      </c>
+      <c r="J441" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K441" s="2">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A442" t="s">
+        <v>12</v>
+      </c>
+      <c r="B442">
+        <v>30</v>
+      </c>
+      <c r="C442">
+        <v>3</v>
+      </c>
+      <c r="D442">
+        <v>30</v>
+      </c>
+      <c r="E442">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F442">
+        <v>3</v>
+      </c>
+      <c r="G442" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H442" s="1">
+        <v>44291</v>
+      </c>
+      <c r="I442" s="1">
+        <v>44292</v>
+      </c>
+      <c r="J442" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K442" s="2">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A443" t="s">
+        <v>13</v>
+      </c>
+      <c r="B443">
+        <v>30</v>
+      </c>
+      <c r="C443">
+        <v>3</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
+      </c>
+      <c r="E443">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F443">
+        <v>3</v>
+      </c>
+      <c r="G443" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H443" s="1">
+        <v>44291</v>
+      </c>
+      <c r="I443" s="1">
+        <v>44292</v>
+      </c>
+      <c r="J443" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K443" s="2">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A444" t="s">
+        <v>13</v>
+      </c>
+      <c r="B444">
+        <v>30</v>
+      </c>
+      <c r="C444">
+        <v>3</v>
+      </c>
+      <c r="D444">
+        <v>5</v>
+      </c>
+      <c r="E444">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F444">
+        <v>3</v>
+      </c>
+      <c r="G444" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H444" s="1">
+        <v>44291</v>
+      </c>
+      <c r="I444" s="1">
+        <v>44292</v>
+      </c>
+      <c r="J444" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K444" s="2">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A445" t="s">
+        <v>13</v>
+      </c>
+      <c r="B445">
+        <v>30</v>
+      </c>
+      <c r="C445">
+        <v>3</v>
+      </c>
+      <c r="D445">
+        <v>10</v>
+      </c>
+      <c r="E445">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F445">
+        <v>3</v>
+      </c>
+      <c r="G445" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H445" s="1">
+        <v>44291</v>
+      </c>
+      <c r="I445" s="1">
+        <v>44292</v>
+      </c>
+      <c r="J445" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K445" s="2">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A446" t="s">
+        <v>13</v>
+      </c>
+      <c r="B446">
+        <v>30</v>
+      </c>
+      <c r="C446">
+        <v>3</v>
+      </c>
+      <c r="D446">
+        <v>15</v>
+      </c>
+      <c r="E446">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F446">
+        <v>3</v>
+      </c>
+      <c r="G446" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H446" s="1">
+        <v>44291</v>
+      </c>
+      <c r="I446" s="1">
+        <v>44292</v>
+      </c>
+      <c r="J446" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K446" s="2">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A447" t="s">
+        <v>13</v>
+      </c>
+      <c r="B447">
+        <v>30</v>
+      </c>
+      <c r="C447">
+        <v>3</v>
+      </c>
+      <c r="D447">
+        <v>20</v>
+      </c>
+      <c r="E447">
+        <v>0.06</v>
+      </c>
+      <c r="F447">
+        <v>3</v>
+      </c>
+      <c r="G447" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H447" s="1">
+        <v>44291</v>
+      </c>
+      <c r="I447" s="1">
+        <v>44292</v>
+      </c>
+      <c r="J447" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K447" s="2">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A448" t="s">
+        <v>13</v>
+      </c>
+      <c r="B448">
+        <v>30</v>
+      </c>
+      <c r="C448">
+        <v>3</v>
+      </c>
+      <c r="D448">
+        <v>25</v>
+      </c>
+      <c r="E448">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F448">
+        <v>3</v>
+      </c>
+      <c r="G448" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H448" s="1">
+        <v>44291</v>
+      </c>
+      <c r="I448" s="1">
+        <v>44292</v>
+      </c>
+      <c r="J448" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K448" s="2">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A449" t="s">
+        <v>13</v>
+      </c>
+      <c r="B449">
+        <v>30</v>
+      </c>
+      <c r="C449">
+        <v>3</v>
+      </c>
+      <c r="D449">
+        <v>30</v>
+      </c>
+      <c r="E449">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F449">
+        <v>3</v>
+      </c>
+      <c r="G449" s="1">
+        <v>44288</v>
+      </c>
+      <c r="H449" s="1">
+        <v>44291</v>
+      </c>
+      <c r="I449" s="1">
+        <v>44292</v>
+      </c>
+      <c r="J449" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K449" s="2">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A450" t="s">
+        <v>11</v>
+      </c>
+      <c r="B450">
+        <v>27</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+      <c r="D450">
+        <v>0</v>
+      </c>
+      <c r="E450">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F450">
+        <v>7</v>
+      </c>
+      <c r="G450" s="1">
+        <v>44280</v>
+      </c>
+      <c r="H450" s="1">
+        <v>44287</v>
+      </c>
+      <c r="I450" s="1">
+        <v>44288</v>
+      </c>
+      <c r="J450" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K450" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A451" t="s">
+        <v>11</v>
+      </c>
+      <c r="B451">
+        <v>27</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+      <c r="D451">
+        <v>5</v>
+      </c>
+      <c r="E451">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F451">
+        <v>7</v>
+      </c>
+      <c r="G451" s="1">
+        <v>44280</v>
+      </c>
+      <c r="H451" s="1">
+        <v>44287</v>
+      </c>
+      <c r="I451" s="1">
+        <v>44288</v>
+      </c>
+      <c r="J451" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K451" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A452" t="s">
+        <v>11</v>
+      </c>
+      <c r="B452">
+        <v>27</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452">
+        <v>10</v>
+      </c>
+      <c r="E452">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F452">
+        <v>7</v>
+      </c>
+      <c r="G452" s="1">
+        <v>44280</v>
+      </c>
+      <c r="H452" s="1">
+        <v>44287</v>
+      </c>
+      <c r="I452" s="1">
+        <v>44288</v>
+      </c>
+      <c r="J452" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K452" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A453" t="s">
+        <v>11</v>
+      </c>
+      <c r="B453">
+        <v>27</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+      <c r="D453">
+        <v>15</v>
+      </c>
+      <c r="E453">
+        <v>0.06</v>
+      </c>
+      <c r="F453">
+        <v>7</v>
+      </c>
+      <c r="G453" s="1">
+        <v>44280</v>
+      </c>
+      <c r="H453" s="1">
+        <v>44287</v>
+      </c>
+      <c r="I453" s="1">
+        <v>44288</v>
+      </c>
+      <c r="J453" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K453" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A454" t="s">
+        <v>11</v>
+      </c>
+      <c r="B454">
+        <v>27</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+      <c r="D454">
+        <v>20</v>
+      </c>
+      <c r="E454">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F454">
+        <v>7</v>
+      </c>
+      <c r="G454" s="1">
+        <v>44280</v>
+      </c>
+      <c r="H454" s="1">
+        <v>44287</v>
+      </c>
+      <c r="I454" s="1">
+        <v>44288</v>
+      </c>
+      <c r="J454" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K454" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A455" t="s">
+        <v>11</v>
+      </c>
+      <c r="B455">
+        <v>27</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+      <c r="D455">
+        <v>25</v>
+      </c>
+      <c r="E455">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F455">
+        <v>7</v>
+      </c>
+      <c r="G455" s="1">
+        <v>44280</v>
+      </c>
+      <c r="H455" s="1">
+        <v>44287</v>
+      </c>
+      <c r="I455" s="1">
+        <v>44288</v>
+      </c>
+      <c r="J455" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K455" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A456" t="s">
+        <v>11</v>
+      </c>
+      <c r="B456">
+        <v>27</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456">
+        <v>30</v>
+      </c>
+      <c r="E456">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F456">
+        <v>7</v>
+      </c>
+      <c r="G456" s="1">
+        <v>44280</v>
+      </c>
+      <c r="H456" s="1">
+        <v>44287</v>
+      </c>
+      <c r="I456" s="1">
+        <v>44288</v>
+      </c>
+      <c r="J456" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K456" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A457" t="s">
+        <v>12</v>
+      </c>
+      <c r="B457">
+        <v>27</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457">
+        <v>0</v>
+      </c>
+      <c r="E457">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F457">
+        <v>7</v>
+      </c>
+      <c r="G457" s="1">
+        <v>44280</v>
+      </c>
+      <c r="H457" s="1">
+        <v>44287</v>
+      </c>
+      <c r="I457" s="1">
+        <v>44288</v>
+      </c>
+      <c r="J457" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K457" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A458" t="s">
+        <v>12</v>
+      </c>
+      <c r="B458">
+        <v>27</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458">
+        <v>5</v>
+      </c>
+      <c r="E458">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F458">
+        <v>7</v>
+      </c>
+      <c r="G458" s="1">
+        <v>44280</v>
+      </c>
+      <c r="H458" s="1">
+        <v>44287</v>
+      </c>
+      <c r="I458" s="1">
+        <v>44288</v>
+      </c>
+      <c r="J458" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K458" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A459" t="s">
+        <v>12</v>
+      </c>
+      <c r="B459">
+        <v>27</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459">
+        <v>10</v>
+      </c>
+      <c r="E459">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F459">
+        <v>7</v>
+      </c>
+      <c r="G459" s="1">
+        <v>44280</v>
+      </c>
+      <c r="H459" s="1">
+        <v>44287</v>
+      </c>
+      <c r="I459" s="1">
+        <v>44288</v>
+      </c>
+      <c r="J459" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K459" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A460" t="s">
+        <v>12</v>
+      </c>
+      <c r="B460">
+        <v>27</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+      <c r="D460">
+        <v>15</v>
+      </c>
+      <c r="E460">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F460">
+        <v>7</v>
+      </c>
+      <c r="G460" s="1">
+        <v>44280</v>
+      </c>
+      <c r="H460" s="1">
+        <v>44287</v>
+      </c>
+      <c r="I460" s="1">
+        <v>44288</v>
+      </c>
+      <c r="J460" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K460" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A461" t="s">
+        <v>12</v>
+      </c>
+      <c r="B461">
+        <v>27</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+      <c r="D461">
+        <v>20</v>
+      </c>
+      <c r="E461">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F461">
+        <v>7</v>
+      </c>
+      <c r="G461" s="1">
+        <v>44280</v>
+      </c>
+      <c r="H461" s="1">
+        <v>44287</v>
+      </c>
+      <c r="I461" s="1">
+        <v>44288</v>
+      </c>
+      <c r="J461" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K461" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A462" t="s">
+        <v>12</v>
+      </c>
+      <c r="B462">
+        <v>27</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462">
+        <v>25</v>
+      </c>
+      <c r="E462">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F462">
+        <v>7</v>
+      </c>
+      <c r="G462" s="1">
+        <v>44280</v>
+      </c>
+      <c r="H462" s="1">
+        <v>44287</v>
+      </c>
+      <c r="I462" s="1">
+        <v>44288</v>
+      </c>
+      <c r="J462" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K462" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A463" t="s">
+        <v>12</v>
+      </c>
+      <c r="B463">
+        <v>27</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+      <c r="D463">
+        <v>30</v>
+      </c>
+      <c r="E463">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F463">
+        <v>7</v>
+      </c>
+      <c r="G463" s="1">
+        <v>44280</v>
+      </c>
+      <c r="H463" s="1">
+        <v>44287</v>
+      </c>
+      <c r="I463" s="1">
+        <v>44288</v>
+      </c>
+      <c r="J463" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K463" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A464" t="s">
+        <v>13</v>
+      </c>
+      <c r="B464">
+        <v>27</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+      <c r="D464">
+        <v>0</v>
+      </c>
+      <c r="E464">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F464">
+        <v>7</v>
+      </c>
+      <c r="G464" s="1">
+        <v>44280</v>
+      </c>
+      <c r="H464" s="1">
+        <v>44287</v>
+      </c>
+      <c r="I464" s="1">
+        <v>44288</v>
+      </c>
+      <c r="J464" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K464" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A465" t="s">
+        <v>13</v>
+      </c>
+      <c r="B465">
+        <v>27</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465">
+        <v>5</v>
+      </c>
+      <c r="E465">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F465">
+        <v>7</v>
+      </c>
+      <c r="G465" s="1">
+        <v>44280</v>
+      </c>
+      <c r="H465" s="1">
+        <v>44287</v>
+      </c>
+      <c r="I465" s="1">
+        <v>44288</v>
+      </c>
+      <c r="J465" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K465" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A466" t="s">
+        <v>13</v>
+      </c>
+      <c r="B466">
+        <v>27</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466">
+        <v>10</v>
+      </c>
+      <c r="E466">
+        <v>0.06</v>
+      </c>
+      <c r="F466">
+        <v>7</v>
+      </c>
+      <c r="G466" s="1">
+        <v>44280</v>
+      </c>
+      <c r="H466" s="1">
+        <v>44287</v>
+      </c>
+      <c r="I466" s="1">
+        <v>44288</v>
+      </c>
+      <c r="J466" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K466" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A467" t="s">
+        <v>13</v>
+      </c>
+      <c r="B467">
+        <v>27</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+      <c r="D467">
+        <v>15</v>
+      </c>
+      <c r="E467">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F467">
+        <v>7</v>
+      </c>
+      <c r="G467" s="1">
+        <v>44280</v>
+      </c>
+      <c r="H467" s="1">
+        <v>44287</v>
+      </c>
+      <c r="I467" s="1">
+        <v>44288</v>
+      </c>
+      <c r="J467" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K467" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A468" t="s">
+        <v>13</v>
+      </c>
+      <c r="B468">
+        <v>27</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+      <c r="D468">
+        <v>20</v>
+      </c>
+      <c r="E468">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F468">
+        <v>7</v>
+      </c>
+      <c r="G468" s="1">
+        <v>44280</v>
+      </c>
+      <c r="H468" s="1">
+        <v>44287</v>
+      </c>
+      <c r="I468" s="1">
+        <v>44288</v>
+      </c>
+      <c r="J468" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K468" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A469" t="s">
+        <v>13</v>
+      </c>
+      <c r="B469">
+        <v>27</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+      <c r="D469">
+        <v>25</v>
+      </c>
+      <c r="E469">
+        <v>0.09</v>
+      </c>
+      <c r="F469">
+        <v>7</v>
+      </c>
+      <c r="G469" s="1">
+        <v>44280</v>
+      </c>
+      <c r="H469" s="1">
+        <v>44287</v>
+      </c>
+      <c r="I469" s="1">
+        <v>44288</v>
+      </c>
+      <c r="J469" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K469" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A470" t="s">
+        <v>13</v>
+      </c>
+      <c r="B470">
+        <v>27</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+      <c r="D470">
+        <v>30</v>
+      </c>
+      <c r="E470">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F470">
+        <v>7</v>
+      </c>
+      <c r="G470" s="1">
+        <v>44280</v>
+      </c>
+      <c r="H470" s="1">
+        <v>44287</v>
+      </c>
+      <c r="I470" s="1">
+        <v>44288</v>
+      </c>
+      <c r="J470" s="1">
+        <v>44295</v>
+      </c>
+      <c r="K470" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A471" t="s">
+        <v>14</v>
+      </c>
+      <c r="B471" t="s">
+        <v>15</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="D471">
+        <v>0</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>0</v>
+      </c>
+      <c r="J471" s="1">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A472" t="s">
+        <v>14</v>
+      </c>
+      <c r="B472" t="s">
+        <v>15</v>
+      </c>
+      <c r="C472">
+        <v>0</v>
+      </c>
+      <c r="D472">
+        <v>5</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+      <c r="F472">
+        <v>0</v>
+      </c>
+      <c r="J472" s="1">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A473" t="s">
+        <v>14</v>
+      </c>
+      <c r="B473" t="s">
+        <v>15</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
+      </c>
+      <c r="D473">
+        <v>10</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+      <c r="F473">
+        <v>0</v>
+      </c>
+      <c r="J473" s="1">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A474" t="s">
+        <v>14</v>
+      </c>
+      <c r="B474" t="s">
+        <v>15</v>
+      </c>
+      <c r="C474">
+        <v>0</v>
+      </c>
+      <c r="D474">
+        <v>15</v>
+      </c>
+      <c r="E474">
+        <v>1E-3</v>
+      </c>
+      <c r="F474">
+        <v>0</v>
+      </c>
+      <c r="J474" s="1">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A475" t="s">
+        <v>14</v>
+      </c>
+      <c r="B475" t="s">
+        <v>15</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+      <c r="D475">
+        <v>20</v>
+      </c>
+      <c r="E475">
+        <v>0</v>
+      </c>
+      <c r="F475">
+        <v>0</v>
+      </c>
+      <c r="J475" s="1">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A476" t="s">
+        <v>14</v>
+      </c>
+      <c r="B476" t="s">
+        <v>15</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+      <c r="D476">
+        <v>25</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+      <c r="F476">
+        <v>0</v>
+      </c>
+      <c r="J476" s="1">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A477" t="s">
+        <v>14</v>
+      </c>
+      <c r="B477" t="s">
+        <v>15</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477">
+        <v>30</v>
+      </c>
+      <c r="E477">
+        <v>1E-3</v>
+      </c>
+      <c r="F477">
+        <v>0</v>
+      </c>
+      <c r="J477" s="1">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A478" t="s">
+        <v>11</v>
+      </c>
+      <c r="B478">
+        <v>30</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+      <c r="D478">
+        <v>0</v>
+      </c>
+      <c r="E478">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F478">
+        <v>10</v>
+      </c>
+      <c r="G478" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H478" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I478" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J478" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K478">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A479" t="s">
+        <v>11</v>
+      </c>
+      <c r="B479">
+        <v>30</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+      <c r="D479">
+        <v>5</v>
+      </c>
+      <c r="E479">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F479">
+        <v>10</v>
+      </c>
+      <c r="G479" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H479" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I479" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J479" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K479">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A480" t="s">
+        <v>11</v>
+      </c>
+      <c r="B480">
+        <v>30</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480">
+        <v>10</v>
+      </c>
+      <c r="E480">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F480">
+        <v>10</v>
+      </c>
+      <c r="G480" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H480" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I480" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J480" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K480">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A481" t="s">
+        <v>11</v>
+      </c>
+      <c r="B481">
+        <v>30</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+      <c r="D481">
+        <v>15</v>
+      </c>
+      <c r="E481">
+        <v>0.123</v>
+      </c>
+      <c r="F481">
+        <v>10</v>
+      </c>
+      <c r="G481" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H481" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I481" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J481" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K481">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A482" t="s">
+        <v>11</v>
+      </c>
+      <c r="B482">
+        <v>30</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+      <c r="D482">
+        <v>20</v>
+      </c>
+      <c r="E482">
+        <v>0.128</v>
+      </c>
+      <c r="F482">
+        <v>10</v>
+      </c>
+      <c r="G482" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H482" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I482" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J482" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K482">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A483" t="s">
+        <v>11</v>
+      </c>
+      <c r="B483">
+        <v>30</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+      <c r="D483">
+        <v>25</v>
+      </c>
+      <c r="E483">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F483">
+        <v>10</v>
+      </c>
+      <c r="G483" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H483" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I483" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J483" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K483">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A484" t="s">
+        <v>11</v>
+      </c>
+      <c r="B484">
+        <v>30</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="D484">
+        <v>30</v>
+      </c>
+      <c r="E484">
+        <v>0.153</v>
+      </c>
+      <c r="F484">
+        <v>10</v>
+      </c>
+      <c r="G484" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H484" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I484" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J484" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K484">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A485" t="s">
+        <v>12</v>
+      </c>
+      <c r="B485">
+        <v>30</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+      <c r="D485">
+        <v>0</v>
+      </c>
+      <c r="E485">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F485">
+        <v>10</v>
+      </c>
+      <c r="G485" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H485" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I485" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J485" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K485">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A486" t="s">
+        <v>12</v>
+      </c>
+      <c r="B486">
+        <v>30</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+      <c r="D486">
+        <v>5</v>
+      </c>
+      <c r="E486">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F486">
+        <v>10</v>
+      </c>
+      <c r="G486" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H486" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I486" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J486" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K486">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A487" t="s">
+        <v>12</v>
+      </c>
+      <c r="B487">
+        <v>30</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+      <c r="D487">
+        <v>10</v>
+      </c>
+      <c r="E487">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F487">
+        <v>10</v>
+      </c>
+      <c r="G487" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H487" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I487" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J487" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K487">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A488" t="s">
+        <v>12</v>
+      </c>
+      <c r="B488">
+        <v>30</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+      <c r="D488">
+        <v>15</v>
+      </c>
+      <c r="E488">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F488">
+        <v>10</v>
+      </c>
+      <c r="G488" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H488" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I488" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J488" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K488">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A489" t="s">
+        <v>12</v>
+      </c>
+      <c r="B489">
+        <v>30</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+      <c r="D489">
+        <v>20</v>
+      </c>
+      <c r="E489">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F489">
+        <v>10</v>
+      </c>
+      <c r="G489" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H489" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I489" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J489" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K489">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A490" t="s">
+        <v>12</v>
+      </c>
+      <c r="B490">
+        <v>30</v>
+      </c>
+      <c r="C490">
+        <v>1</v>
+      </c>
+      <c r="D490">
+        <v>25</v>
+      </c>
+      <c r="E490">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F490">
+        <v>10</v>
+      </c>
+      <c r="G490" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H490" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I490" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J490" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K490">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A491" t="s">
+        <v>12</v>
+      </c>
+      <c r="B491">
+        <v>30</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+      <c r="D491">
+        <v>30</v>
+      </c>
+      <c r="E491">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F491">
+        <v>10</v>
+      </c>
+      <c r="G491" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H491" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I491" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J491" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K491">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A492" t="s">
+        <v>13</v>
+      </c>
+      <c r="B492">
+        <v>30</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492">
+        <v>0</v>
+      </c>
+      <c r="E492">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F492">
+        <v>10</v>
+      </c>
+      <c r="G492" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H492" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I492" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J492" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K492">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A493" t="s">
+        <v>13</v>
+      </c>
+      <c r="B493">
+        <v>30</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+      <c r="D493">
+        <v>5</v>
+      </c>
+      <c r="E493">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F493">
+        <v>10</v>
+      </c>
+      <c r="G493" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H493" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I493" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J493" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K493">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A494" t="s">
+        <v>13</v>
+      </c>
+      <c r="B494">
+        <v>30</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494">
+        <v>10</v>
+      </c>
+      <c r="E494">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F494">
+        <v>10</v>
+      </c>
+      <c r="G494" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H494" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I494" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J494" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K494">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A495" t="s">
+        <v>13</v>
+      </c>
+      <c r="B495">
+        <v>30</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+      <c r="D495">
+        <v>15</v>
+      </c>
+      <c r="E495">
+        <v>0.104</v>
+      </c>
+      <c r="F495">
+        <v>10</v>
+      </c>
+      <c r="G495" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H495" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I495" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J495" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K495">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A496" t="s">
+        <v>13</v>
+      </c>
+      <c r="B496">
+        <v>30</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="D496">
+        <v>20</v>
+      </c>
+      <c r="E496">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F496">
+        <v>10</v>
+      </c>
+      <c r="G496" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H496" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I496" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J496" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K496">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A497" t="s">
+        <v>13</v>
+      </c>
+      <c r="B497">
+        <v>30</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497">
+        <v>25</v>
+      </c>
+      <c r="E497">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="F497">
+        <v>10</v>
+      </c>
+      <c r="G497" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H497" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I497" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J497" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K497">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A498" t="s">
+        <v>13</v>
+      </c>
+      <c r="B498">
+        <v>30</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+      <c r="D498">
+        <v>30</v>
+      </c>
+      <c r="E498">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="F498">
+        <v>10</v>
+      </c>
+      <c r="G498" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H498" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I498" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J498" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K498">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A499" t="s">
+        <v>13</v>
+      </c>
+      <c r="B499">
+        <v>30</v>
+      </c>
+      <c r="C499">
+        <v>2</v>
+      </c>
+      <c r="D499">
+        <v>0</v>
+      </c>
+      <c r="E499">
+        <v>0.04</v>
+      </c>
+      <c r="F499">
+        <v>10</v>
+      </c>
+      <c r="G499" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H499" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I499" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J499" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K499">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A500" t="s">
+        <v>13</v>
+      </c>
+      <c r="B500">
+        <v>30</v>
+      </c>
+      <c r="C500">
+        <v>2</v>
+      </c>
+      <c r="D500">
+        <v>5</v>
+      </c>
+      <c r="E500">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F500">
+        <v>10</v>
+      </c>
+      <c r="G500" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H500" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I500" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J500" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K500">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A501" t="s">
+        <v>13</v>
+      </c>
+      <c r="B501">
+        <v>30</v>
+      </c>
+      <c r="C501">
+        <v>2</v>
+      </c>
+      <c r="D501">
+        <v>10</v>
+      </c>
+      <c r="E501">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F501">
+        <v>10</v>
+      </c>
+      <c r="G501" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H501" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I501" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J501" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K501">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A502" t="s">
+        <v>13</v>
+      </c>
+      <c r="B502">
+        <v>30</v>
+      </c>
+      <c r="C502">
+        <v>2</v>
+      </c>
+      <c r="D502">
+        <v>15</v>
+      </c>
+      <c r="E502">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F502">
+        <v>10</v>
+      </c>
+      <c r="G502" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H502" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I502" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J502" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K502">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A503" t="s">
+        <v>13</v>
+      </c>
+      <c r="B503">
+        <v>30</v>
+      </c>
+      <c r="C503">
+        <v>2</v>
+      </c>
+      <c r="D503">
+        <v>20</v>
+      </c>
+      <c r="E503">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F503">
+        <v>10</v>
+      </c>
+      <c r="G503" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H503" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I503" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J503" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K503">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A504" t="s">
+        <v>13</v>
+      </c>
+      <c r="B504">
+        <v>30</v>
+      </c>
+      <c r="C504">
+        <v>2</v>
+      </c>
+      <c r="D504">
+        <v>25</v>
+      </c>
+      <c r="E504">
+        <v>0.05</v>
+      </c>
+      <c r="F504">
+        <v>10</v>
+      </c>
+      <c r="G504" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H504" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I504" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J504" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K504">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A505" t="s">
+        <v>13</v>
+      </c>
+      <c r="B505">
+        <v>30</v>
+      </c>
+      <c r="C505">
+        <v>2</v>
+      </c>
+      <c r="D505">
+        <v>30</v>
+      </c>
+      <c r="E505">
+        <v>0.05</v>
+      </c>
+      <c r="F505">
+        <v>10</v>
+      </c>
+      <c r="G505" s="1">
+        <v>44318</v>
+      </c>
+      <c r="H505" s="1">
+        <v>44328</v>
+      </c>
+      <c r="I505" s="1">
+        <v>44329</v>
+      </c>
+      <c r="J505" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K505">
+        <v>5416.5</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A506" t="s">
+        <v>11</v>
+      </c>
+      <c r="B506">
+        <v>30</v>
+      </c>
+      <c r="C506">
+        <v>2</v>
+      </c>
+      <c r="D506">
+        <v>0</v>
+      </c>
+      <c r="E506">
+        <v>0.04</v>
+      </c>
+      <c r="F506">
+        <v>5</v>
+      </c>
+      <c r="G506" s="1">
+        <v>44296</v>
+      </c>
+      <c r="H506" s="1">
+        <v>44301</v>
+      </c>
+      <c r="I506" s="1">
+        <v>44302</v>
+      </c>
+      <c r="J506" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K506">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A507" t="s">
+        <v>11</v>
+      </c>
+      <c r="B507">
+        <v>30</v>
+      </c>
+      <c r="C507">
+        <v>2</v>
+      </c>
+      <c r="D507">
+        <v>5</v>
+      </c>
+      <c r="E507">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F507">
+        <v>5</v>
+      </c>
+      <c r="G507" s="1">
+        <v>44296</v>
+      </c>
+      <c r="H507" s="1">
+        <v>44301</v>
+      </c>
+      <c r="I507" s="1">
+        <v>44302</v>
+      </c>
+      <c r="J507" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K507">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A508" t="s">
+        <v>11</v>
+      </c>
+      <c r="B508">
+        <v>30</v>
+      </c>
+      <c r="C508">
+        <v>2</v>
+      </c>
+      <c r="D508">
+        <v>10</v>
+      </c>
+      <c r="E508">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F508">
+        <v>5</v>
+      </c>
+      <c r="G508" s="1">
+        <v>44296</v>
+      </c>
+      <c r="H508" s="1">
+        <v>44301</v>
+      </c>
+      <c r="I508" s="1">
+        <v>44302</v>
+      </c>
+      <c r="J508" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K508">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A509" t="s">
+        <v>11</v>
+      </c>
+      <c r="B509">
+        <v>30</v>
+      </c>
+      <c r="C509">
+        <v>2</v>
+      </c>
+      <c r="D509">
+        <v>15</v>
+      </c>
+      <c r="E509">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F509">
+        <v>5</v>
+      </c>
+      <c r="G509" s="1">
+        <v>44296</v>
+      </c>
+      <c r="H509" s="1">
+        <v>44301</v>
+      </c>
+      <c r="I509" s="1">
+        <v>44302</v>
+      </c>
+      <c r="J509" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K509">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A510" t="s">
+        <v>11</v>
+      </c>
+      <c r="B510">
+        <v>30</v>
+      </c>
+      <c r="C510">
+        <v>2</v>
+      </c>
+      <c r="D510">
+        <v>20</v>
+      </c>
+      <c r="E510">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F510">
+        <v>5</v>
+      </c>
+      <c r="G510" s="1">
+        <v>44296</v>
+      </c>
+      <c r="H510" s="1">
+        <v>44301</v>
+      </c>
+      <c r="I510" s="1">
+        <v>44302</v>
+      </c>
+      <c r="J510" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K510">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A511" t="s">
+        <v>11</v>
+      </c>
+      <c r="B511">
+        <v>30</v>
+      </c>
+      <c r="C511">
+        <v>2</v>
+      </c>
+      <c r="D511">
+        <v>25</v>
+      </c>
+      <c r="E511">
+        <v>0.05</v>
+      </c>
+      <c r="F511">
+        <v>5</v>
+      </c>
+      <c r="G511" s="1">
+        <v>44296</v>
+      </c>
+      <c r="H511" s="1">
+        <v>44301</v>
+      </c>
+      <c r="I511" s="1">
+        <v>44302</v>
+      </c>
+      <c r="J511" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K511">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A512" t="s">
+        <v>11</v>
+      </c>
+      <c r="B512">
+        <v>30</v>
+      </c>
+      <c r="C512">
+        <v>2</v>
+      </c>
+      <c r="D512">
+        <v>30</v>
+      </c>
+      <c r="E512">
+        <v>0.05</v>
+      </c>
+      <c r="F512">
+        <v>5</v>
+      </c>
+      <c r="G512" s="1">
+        <v>44296</v>
+      </c>
+      <c r="H512" s="1">
+        <v>44301</v>
+      </c>
+      <c r="I512" s="1">
+        <v>44302</v>
+      </c>
+      <c r="J512" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K512">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A513" t="s">
+        <v>12</v>
+      </c>
+      <c r="B513">
+        <v>30</v>
+      </c>
+      <c r="C513">
+        <v>2</v>
+      </c>
+      <c r="D513">
+        <v>0</v>
+      </c>
+      <c r="E513">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F513">
+        <v>5</v>
+      </c>
+      <c r="G513" s="1">
+        <v>44296</v>
+      </c>
+      <c r="H513" s="1">
+        <v>44301</v>
+      </c>
+      <c r="I513" s="1">
+        <v>44302</v>
+      </c>
+      <c r="J513" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K513">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A514" t="s">
+        <v>12</v>
+      </c>
+      <c r="B514">
+        <v>30</v>
+      </c>
+      <c r="C514">
+        <v>2</v>
+      </c>
+      <c r="D514">
+        <v>5</v>
+      </c>
+      <c r="E514">
+        <v>0.04</v>
+      </c>
+      <c r="F514">
+        <v>5</v>
+      </c>
+      <c r="G514" s="1">
+        <v>44296</v>
+      </c>
+      <c r="H514" s="1">
+        <v>44301</v>
+      </c>
+      <c r="I514" s="1">
+        <v>44302</v>
+      </c>
+      <c r="J514" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K514">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A515" t="s">
+        <v>12</v>
+      </c>
+      <c r="B515">
+        <v>30</v>
+      </c>
+      <c r="C515">
+        <v>2</v>
+      </c>
+      <c r="D515">
+        <v>10</v>
+      </c>
+      <c r="E515">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F515">
+        <v>5</v>
+      </c>
+      <c r="G515" s="1">
+        <v>44296</v>
+      </c>
+      <c r="H515" s="1">
+        <v>44301</v>
+      </c>
+      <c r="I515" s="1">
+        <v>44302</v>
+      </c>
+      <c r="J515" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K515">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A516" t="s">
+        <v>12</v>
+      </c>
+      <c r="B516">
+        <v>30</v>
+      </c>
+      <c r="C516">
+        <v>2</v>
+      </c>
+      <c r="D516">
+        <v>15</v>
+      </c>
+      <c r="E516">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="F516">
+        <v>5</v>
+      </c>
+      <c r="G516" s="1">
+        <v>44296</v>
+      </c>
+      <c r="H516" s="1">
+        <v>44301</v>
+      </c>
+      <c r="I516" s="1">
+        <v>44302</v>
+      </c>
+      <c r="J516" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K516">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A517" t="s">
+        <v>12</v>
+      </c>
+      <c r="B517">
+        <v>30</v>
+      </c>
+      <c r="C517">
+        <v>2</v>
+      </c>
+      <c r="D517">
+        <v>20</v>
+      </c>
+      <c r="E517">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F517">
+        <v>5</v>
+      </c>
+      <c r="G517" s="1">
+        <v>44296</v>
+      </c>
+      <c r="H517" s="1">
+        <v>44301</v>
+      </c>
+      <c r="I517" s="1">
+        <v>44302</v>
+      </c>
+      <c r="J517" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K517">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A518" t="s">
+        <v>12</v>
+      </c>
+      <c r="B518">
+        <v>30</v>
+      </c>
+      <c r="C518">
+        <v>2</v>
+      </c>
+      <c r="D518">
+        <v>25</v>
+      </c>
+      <c r="E518">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F518">
+        <v>5</v>
+      </c>
+      <c r="G518" s="1">
+        <v>44296</v>
+      </c>
+      <c r="H518" s="1">
+        <v>44301</v>
+      </c>
+      <c r="I518" s="1">
+        <v>44302</v>
+      </c>
+      <c r="J518" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K518">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A519" t="s">
+        <v>12</v>
+      </c>
+      <c r="B519">
+        <v>30</v>
+      </c>
+      <c r="C519">
+        <v>2</v>
+      </c>
+      <c r="D519">
+        <v>30</v>
+      </c>
+      <c r="E519">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F519">
+        <v>5</v>
+      </c>
+      <c r="G519" s="1">
+        <v>44296</v>
+      </c>
+      <c r="H519" s="1">
+        <v>44301</v>
+      </c>
+      <c r="I519" s="1">
+        <v>44302</v>
+      </c>
+      <c r="J519" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K519">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A520" t="s">
+        <v>13</v>
+      </c>
+      <c r="B520">
+        <v>30</v>
+      </c>
+      <c r="C520">
+        <v>2</v>
+      </c>
+      <c r="D520">
+        <v>0</v>
+      </c>
+      <c r="E520">
+        <v>-1E-3</v>
+      </c>
+      <c r="F520">
+        <v>5</v>
+      </c>
+      <c r="G520" s="1">
+        <v>44296</v>
+      </c>
+      <c r="H520" s="1">
+        <v>44301</v>
+      </c>
+      <c r="I520" s="1">
+        <v>44302</v>
+      </c>
+      <c r="J520" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K520">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A521" t="s">
+        <v>13</v>
+      </c>
+      <c r="B521">
+        <v>30</v>
+      </c>
+      <c r="C521">
+        <v>2</v>
+      </c>
+      <c r="D521">
+        <v>5</v>
+      </c>
+      <c r="E521">
+        <v>0</v>
+      </c>
+      <c r="F521">
+        <v>5</v>
+      </c>
+      <c r="G521" s="1">
+        <v>44296</v>
+      </c>
+      <c r="H521" s="1">
+        <v>44301</v>
+      </c>
+      <c r="I521" s="1">
+        <v>44302</v>
+      </c>
+      <c r="J521" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K521">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A522" t="s">
+        <v>13</v>
+      </c>
+      <c r="B522">
+        <v>30</v>
+      </c>
+      <c r="C522">
+        <v>2</v>
+      </c>
+      <c r="D522">
+        <v>10</v>
+      </c>
+      <c r="E522">
+        <v>0</v>
+      </c>
+      <c r="F522">
+        <v>5</v>
+      </c>
+      <c r="G522" s="1">
+        <v>44296</v>
+      </c>
+      <c r="H522" s="1">
+        <v>44301</v>
+      </c>
+      <c r="I522" s="1">
+        <v>44302</v>
+      </c>
+      <c r="J522" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K522">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A523" t="s">
+        <v>13</v>
+      </c>
+      <c r="B523">
+        <v>30</v>
+      </c>
+      <c r="C523">
+        <v>2</v>
+      </c>
+      <c r="D523">
+        <v>15</v>
+      </c>
+      <c r="E523">
+        <v>0</v>
+      </c>
+      <c r="F523">
+        <v>5</v>
+      </c>
+      <c r="G523" s="1">
+        <v>44296</v>
+      </c>
+      <c r="H523" s="1">
+        <v>44301</v>
+      </c>
+      <c r="I523" s="1">
+        <v>44302</v>
+      </c>
+      <c r="J523" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K523">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A524" t="s">
+        <v>13</v>
+      </c>
+      <c r="B524">
+        <v>30</v>
+      </c>
+      <c r="C524">
+        <v>2</v>
+      </c>
+      <c r="D524">
+        <v>20</v>
+      </c>
+      <c r="E524">
+        <v>0</v>
+      </c>
+      <c r="F524">
+        <v>5</v>
+      </c>
+      <c r="G524" s="1">
+        <v>44296</v>
+      </c>
+      <c r="H524" s="1">
+        <v>44301</v>
+      </c>
+      <c r="I524" s="1">
+        <v>44302</v>
+      </c>
+      <c r="J524" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K524">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A525" t="s">
+        <v>13</v>
+      </c>
+      <c r="B525">
+        <v>30</v>
+      </c>
+      <c r="C525">
+        <v>2</v>
+      </c>
+      <c r="D525">
+        <v>25</v>
+      </c>
+      <c r="E525">
+        <v>0</v>
+      </c>
+      <c r="F525">
+        <v>5</v>
+      </c>
+      <c r="G525" s="1">
+        <v>44296</v>
+      </c>
+      <c r="H525" s="1">
+        <v>44301</v>
+      </c>
+      <c r="I525" s="1">
+        <v>44302</v>
+      </c>
+      <c r="J525" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K525">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A526" t="s">
+        <v>13</v>
+      </c>
+      <c r="B526">
+        <v>30</v>
+      </c>
+      <c r="C526">
+        <v>2</v>
+      </c>
+      <c r="D526">
+        <v>30</v>
+      </c>
+      <c r="E526">
+        <v>0</v>
+      </c>
+      <c r="F526">
+        <v>5</v>
+      </c>
+      <c r="G526" s="1">
+        <v>44296</v>
+      </c>
+      <c r="H526" s="1">
+        <v>44301</v>
+      </c>
+      <c r="I526" s="1">
+        <v>44302</v>
+      </c>
+      <c r="J526" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K526">
+        <v>12627</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A527" t="s">
+        <v>11</v>
+      </c>
+      <c r="B527">
+        <v>27</v>
+      </c>
+      <c r="C527">
+        <v>2</v>
+      </c>
+      <c r="D527">
+        <v>0</v>
+      </c>
+      <c r="E527">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F527">
+        <v>1</v>
+      </c>
+      <c r="G527" s="1">
+        <v>44320</v>
+      </c>
+      <c r="H527" s="1">
+        <v>44321</v>
+      </c>
+      <c r="I527" s="1">
+        <v>44322</v>
+      </c>
+      <c r="J527" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K527">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A528" t="s">
+        <v>11</v>
+      </c>
+      <c r="B528">
+        <v>27</v>
+      </c>
+      <c r="C528">
+        <v>2</v>
+      </c>
+      <c r="D528">
+        <v>5</v>
+      </c>
+      <c r="E528">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F528">
+        <v>1</v>
+      </c>
+      <c r="G528" s="1">
+        <v>44320</v>
+      </c>
+      <c r="H528" s="1">
+        <v>44321</v>
+      </c>
+      <c r="I528" s="1">
+        <v>44322</v>
+      </c>
+      <c r="J528" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K528">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A529" t="s">
+        <v>11</v>
+      </c>
+      <c r="B529">
+        <v>27</v>
+      </c>
+      <c r="C529">
+        <v>2</v>
+      </c>
+      <c r="D529">
+        <v>10</v>
+      </c>
+      <c r="E529">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F529">
+        <v>1</v>
+      </c>
+      <c r="G529" s="1">
+        <v>44320</v>
+      </c>
+      <c r="H529" s="1">
+        <v>44321</v>
+      </c>
+      <c r="I529" s="1">
+        <v>44322</v>
+      </c>
+      <c r="J529" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K529">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A530" t="s">
+        <v>11</v>
+      </c>
+      <c r="B530">
+        <v>27</v>
+      </c>
+      <c r="C530">
+        <v>2</v>
+      </c>
+      <c r="D530">
+        <v>15</v>
+      </c>
+      <c r="E530">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F530">
+        <v>1</v>
+      </c>
+      <c r="G530" s="1">
+        <v>44320</v>
+      </c>
+      <c r="H530" s="1">
+        <v>44321</v>
+      </c>
+      <c r="I530" s="1">
+        <v>44322</v>
+      </c>
+      <c r="J530" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K530">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A531" t="s">
+        <v>11</v>
+      </c>
+      <c r="B531">
+        <v>27</v>
+      </c>
+      <c r="C531">
+        <v>2</v>
+      </c>
+      <c r="D531">
+        <v>20</v>
+      </c>
+      <c r="E531">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F531">
+        <v>1</v>
+      </c>
+      <c r="G531" s="1">
+        <v>44320</v>
+      </c>
+      <c r="H531" s="1">
+        <v>44321</v>
+      </c>
+      <c r="I531" s="1">
+        <v>44322</v>
+      </c>
+      <c r="J531" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K531">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A532" t="s">
+        <v>11</v>
+      </c>
+      <c r="B532">
+        <v>27</v>
+      </c>
+      <c r="C532">
+        <v>2</v>
+      </c>
+      <c r="D532">
+        <v>25</v>
+      </c>
+      <c r="E532">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F532">
+        <v>1</v>
+      </c>
+      <c r="G532" s="1">
+        <v>44320</v>
+      </c>
+      <c r="H532" s="1">
+        <v>44321</v>
+      </c>
+      <c r="I532" s="1">
+        <v>44322</v>
+      </c>
+      <c r="J532" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K532">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A533" t="s">
+        <v>11</v>
+      </c>
+      <c r="B533">
+        <v>27</v>
+      </c>
+      <c r="C533">
+        <v>2</v>
+      </c>
+      <c r="D533">
+        <v>30</v>
+      </c>
+      <c r="E533">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F533">
+        <v>1</v>
+      </c>
+      <c r="G533" s="1">
+        <v>44320</v>
+      </c>
+      <c r="H533" s="1">
+        <v>44321</v>
+      </c>
+      <c r="I533" s="1">
+        <v>44322</v>
+      </c>
+      <c r="J533" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K533">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A534" t="s">
+        <v>12</v>
+      </c>
+      <c r="B534">
+        <v>27</v>
+      </c>
+      <c r="C534">
+        <v>2</v>
+      </c>
+      <c r="D534">
+        <v>0</v>
+      </c>
+      <c r="E534">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F534">
+        <v>1</v>
+      </c>
+      <c r="G534" s="1">
+        <v>44320</v>
+      </c>
+      <c r="H534" s="1">
+        <v>44321</v>
+      </c>
+      <c r="I534" s="1">
+        <v>44322</v>
+      </c>
+      <c r="J534" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K534">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A535" t="s">
+        <v>12</v>
+      </c>
+      <c r="B535">
+        <v>27</v>
+      </c>
+      <c r="C535">
+        <v>2</v>
+      </c>
+      <c r="D535">
+        <v>5</v>
+      </c>
+      <c r="E535">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F535">
+        <v>1</v>
+      </c>
+      <c r="G535" s="1">
+        <v>44320</v>
+      </c>
+      <c r="H535" s="1">
+        <v>44321</v>
+      </c>
+      <c r="I535" s="1">
+        <v>44322</v>
+      </c>
+      <c r="J535" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K535">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A536" t="s">
+        <v>12</v>
+      </c>
+      <c r="B536">
+        <v>27</v>
+      </c>
+      <c r="C536">
+        <v>2</v>
+      </c>
+      <c r="D536">
+        <v>10</v>
+      </c>
+      <c r="E536">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F536">
+        <v>1</v>
+      </c>
+      <c r="G536" s="1">
+        <v>44320</v>
+      </c>
+      <c r="H536" s="1">
+        <v>44321</v>
+      </c>
+      <c r="I536" s="1">
+        <v>44322</v>
+      </c>
+      <c r="J536" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K536">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A537" t="s">
+        <v>12</v>
+      </c>
+      <c r="B537">
+        <v>27</v>
+      </c>
+      <c r="C537">
+        <v>2</v>
+      </c>
+      <c r="D537">
+        <v>15</v>
+      </c>
+      <c r="E537">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F537">
+        <v>1</v>
+      </c>
+      <c r="G537" s="1">
+        <v>44320</v>
+      </c>
+      <c r="H537" s="1">
+        <v>44321</v>
+      </c>
+      <c r="I537" s="1">
+        <v>44322</v>
+      </c>
+      <c r="J537" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K537">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A538" t="s">
+        <v>12</v>
+      </c>
+      <c r="B538">
+        <v>27</v>
+      </c>
+      <c r="C538">
+        <v>2</v>
+      </c>
+      <c r="D538">
+        <v>20</v>
+      </c>
+      <c r="E538">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F538">
+        <v>1</v>
+      </c>
+      <c r="G538" s="1">
+        <v>44320</v>
+      </c>
+      <c r="H538" s="1">
+        <v>44321</v>
+      </c>
+      <c r="I538" s="1">
+        <v>44322</v>
+      </c>
+      <c r="J538" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K538">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A539" t="s">
+        <v>12</v>
+      </c>
+      <c r="B539">
+        <v>27</v>
+      </c>
+      <c r="C539">
+        <v>2</v>
+      </c>
+      <c r="D539">
+        <v>25</v>
+      </c>
+      <c r="E539">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F539">
+        <v>1</v>
+      </c>
+      <c r="G539" s="1">
+        <v>44320</v>
+      </c>
+      <c r="H539" s="1">
+        <v>44321</v>
+      </c>
+      <c r="I539" s="1">
+        <v>44322</v>
+      </c>
+      <c r="J539" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K539">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A540" t="s">
+        <v>12</v>
+      </c>
+      <c r="B540">
+        <v>27</v>
+      </c>
+      <c r="C540">
+        <v>2</v>
+      </c>
+      <c r="D540">
+        <v>30</v>
+      </c>
+      <c r="E540">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F540">
+        <v>1</v>
+      </c>
+      <c r="G540" s="1">
+        <v>44320</v>
+      </c>
+      <c r="H540" s="1">
+        <v>44321</v>
+      </c>
+      <c r="I540" s="1">
+        <v>44322</v>
+      </c>
+      <c r="J540" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K540">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A541" t="s">
+        <v>13</v>
+      </c>
+      <c r="B541">
+        <v>27</v>
+      </c>
+      <c r="C541">
+        <v>2</v>
+      </c>
+      <c r="D541">
+        <v>0</v>
+      </c>
+      <c r="E541">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F541">
+        <v>1</v>
+      </c>
+      <c r="G541" s="1">
+        <v>44320</v>
+      </c>
+      <c r="H541" s="1">
+        <v>44321</v>
+      </c>
+      <c r="I541" s="1">
+        <v>44322</v>
+      </c>
+      <c r="J541" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K541">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A542" t="s">
+        <v>13</v>
+      </c>
+      <c r="B542">
+        <v>27</v>
+      </c>
+      <c r="C542">
+        <v>2</v>
+      </c>
+      <c r="D542">
+        <v>5</v>
+      </c>
+      <c r="E542">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F542">
+        <v>1</v>
+      </c>
+      <c r="G542" s="1">
+        <v>44320</v>
+      </c>
+      <c r="H542" s="1">
+        <v>44321</v>
+      </c>
+      <c r="I542" s="1">
+        <v>44322</v>
+      </c>
+      <c r="J542" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K542">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A543" t="s">
+        <v>13</v>
+      </c>
+      <c r="B543">
+        <v>27</v>
+      </c>
+      <c r="C543">
+        <v>2</v>
+      </c>
+      <c r="D543">
+        <v>10</v>
+      </c>
+      <c r="E543">
+        <v>0.02</v>
+      </c>
+      <c r="F543">
+        <v>1</v>
+      </c>
+      <c r="G543" s="1">
+        <v>44320</v>
+      </c>
+      <c r="H543" s="1">
+        <v>44321</v>
+      </c>
+      <c r="I543" s="1">
+        <v>44322</v>
+      </c>
+      <c r="J543" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K543">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A544" t="s">
+        <v>13</v>
+      </c>
+      <c r="B544">
+        <v>27</v>
+      </c>
+      <c r="C544">
+        <v>2</v>
+      </c>
+      <c r="D544">
+        <v>15</v>
+      </c>
+      <c r="E544">
+        <v>0.02</v>
+      </c>
+      <c r="F544">
+        <v>1</v>
+      </c>
+      <c r="G544" s="1">
+        <v>44320</v>
+      </c>
+      <c r="H544" s="1">
+        <v>44321</v>
+      </c>
+      <c r="I544" s="1">
+        <v>44322</v>
+      </c>
+      <c r="J544" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K544">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A545" t="s">
+        <v>13</v>
+      </c>
+      <c r="B545">
+        <v>27</v>
+      </c>
+      <c r="C545">
+        <v>2</v>
+      </c>
+      <c r="D545">
+        <v>20</v>
+      </c>
+      <c r="E545">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F545">
+        <v>1</v>
+      </c>
+      <c r="G545" s="1">
+        <v>44320</v>
+      </c>
+      <c r="H545" s="1">
+        <v>44321</v>
+      </c>
+      <c r="I545" s="1">
+        <v>44322</v>
+      </c>
+      <c r="J545" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K545">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A546" t="s">
+        <v>13</v>
+      </c>
+      <c r="B546">
+        <v>27</v>
+      </c>
+      <c r="C546">
+        <v>2</v>
+      </c>
+      <c r="D546">
+        <v>25</v>
+      </c>
+      <c r="E546">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F546">
+        <v>1</v>
+      </c>
+      <c r="G546" s="1">
+        <v>44320</v>
+      </c>
+      <c r="H546" s="1">
+        <v>44321</v>
+      </c>
+      <c r="I546" s="1">
+        <v>44322</v>
+      </c>
+      <c r="J546" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K546">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A547" t="s">
+        <v>13</v>
+      </c>
+      <c r="B547">
+        <v>27</v>
+      </c>
+      <c r="C547">
+        <v>2</v>
+      </c>
+      <c r="D547">
+        <v>30</v>
+      </c>
+      <c r="E547">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F547">
+        <v>1</v>
+      </c>
+      <c r="G547" s="1">
+        <v>44320</v>
+      </c>
+      <c r="H547" s="1">
+        <v>44321</v>
+      </c>
+      <c r="I547" s="1">
+        <v>44322</v>
+      </c>
+      <c r="J547" s="1">
+        <v>44340</v>
+      </c>
+      <c r="K547">
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A548" t="s">
+        <v>14</v>
+      </c>
+      <c r="B548" t="s">
+        <v>15</v>
+      </c>
+      <c r="C548">
+        <v>0</v>
+      </c>
+      <c r="D548">
+        <v>0</v>
+      </c>
+      <c r="E548">
+        <v>0</v>
+      </c>
+      <c r="J548" s="1">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A549" t="s">
+        <v>14</v>
+      </c>
+      <c r="B549" t="s">
+        <v>15</v>
+      </c>
+      <c r="C549">
+        <v>0</v>
+      </c>
+      <c r="D549">
+        <v>5</v>
+      </c>
+      <c r="E549">
+        <v>0</v>
+      </c>
+      <c r="J549" s="1">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="550" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A550" t="s">
+        <v>14</v>
+      </c>
+      <c r="B550" t="s">
+        <v>15</v>
+      </c>
+      <c r="C550">
+        <v>0</v>
+      </c>
+      <c r="D550">
+        <v>10</v>
+      </c>
+      <c r="E550">
+        <v>0</v>
+      </c>
+      <c r="J550" s="1">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A551" t="s">
+        <v>14</v>
+      </c>
+      <c r="B551" t="s">
+        <v>15</v>
+      </c>
+      <c r="C551">
+        <v>0</v>
+      </c>
+      <c r="D551">
+        <v>15</v>
+      </c>
+      <c r="E551">
+        <v>0</v>
+      </c>
+      <c r="J551" s="1">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A552" t="s">
+        <v>14</v>
+      </c>
+      <c r="B552" t="s">
+        <v>15</v>
+      </c>
+      <c r="C552">
+        <v>0</v>
+      </c>
+      <c r="D552">
+        <v>20</v>
+      </c>
+      <c r="E552">
+        <v>0</v>
+      </c>
+      <c r="J552" s="1">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A553" t="s">
+        <v>14</v>
+      </c>
+      <c r="B553" t="s">
+        <v>15</v>
+      </c>
+      <c r="C553">
+        <v>0</v>
+      </c>
+      <c r="D553">
+        <v>25</v>
+      </c>
+      <c r="E553">
+        <v>0</v>
+      </c>
+      <c r="J553" s="1">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A554" t="s">
+        <v>14</v>
+      </c>
+      <c r="B554" t="s">
+        <v>15</v>
+      </c>
+      <c r="C554">
+        <v>0</v>
+      </c>
+      <c r="D554">
+        <v>30</v>
+      </c>
+      <c r="E554">
+        <v>0</v>
+      </c>
+      <c r="J554" s="1">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A555" t="s">
+        <v>11</v>
+      </c>
+      <c r="B555">
+        <v>27</v>
+      </c>
+      <c r="C555">
+        <v>3</v>
+      </c>
+      <c r="D555">
+        <v>0</v>
+      </c>
+      <c r="E555">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F555">
+        <v>3</v>
+      </c>
+      <c r="G555" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H555" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I555" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J555" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K555">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A556" t="s">
+        <v>11</v>
+      </c>
+      <c r="B556">
+        <v>27</v>
+      </c>
+      <c r="C556">
+        <v>3</v>
+      </c>
+      <c r="D556">
+        <v>5</v>
+      </c>
+      <c r="E556">
+        <v>0.112</v>
+      </c>
+      <c r="F556">
+        <v>3</v>
+      </c>
+      <c r="G556" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H556" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I556" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J556" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K556">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A557" t="s">
+        <v>11</v>
+      </c>
+      <c r="B557">
+        <v>27</v>
+      </c>
+      <c r="C557">
+        <v>3</v>
+      </c>
+      <c r="D557">
+        <v>10</v>
+      </c>
+      <c r="E557">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="F557">
+        <v>3</v>
+      </c>
+      <c r="G557" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H557" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I557" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J557" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K557">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A558" t="s">
+        <v>11</v>
+      </c>
+      <c r="B558">
+        <v>27</v>
+      </c>
+      <c r="C558">
+        <v>3</v>
+      </c>
+      <c r="D558">
+        <v>15</v>
+      </c>
+      <c r="E558">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F558">
+        <v>3</v>
+      </c>
+      <c r="G558" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H558" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I558" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J558" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K558">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A559" t="s">
+        <v>11</v>
+      </c>
+      <c r="B559">
+        <v>27</v>
+      </c>
+      <c r="C559">
+        <v>3</v>
+      </c>
+      <c r="D559">
+        <v>20</v>
+      </c>
+      <c r="E559">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F559">
+        <v>3</v>
+      </c>
+      <c r="G559" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H559" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I559" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J559" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K559">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A560" t="s">
+        <v>11</v>
+      </c>
+      <c r="B560">
+        <v>27</v>
+      </c>
+      <c r="C560">
+        <v>3</v>
+      </c>
+      <c r="D560">
+        <v>25</v>
+      </c>
+      <c r="E560">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="F560">
+        <v>3</v>
+      </c>
+      <c r="G560" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H560" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I560" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J560" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K560">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A561" t="s">
+        <v>11</v>
+      </c>
+      <c r="B561">
+        <v>27</v>
+      </c>
+      <c r="C561">
+        <v>3</v>
+      </c>
+      <c r="D561">
+        <v>30</v>
+      </c>
+      <c r="E561">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F561">
+        <v>3</v>
+      </c>
+      <c r="G561" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H561" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I561" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J561" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K561">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A562" t="s">
+        <v>12</v>
+      </c>
+      <c r="B562">
+        <v>27</v>
+      </c>
+      <c r="C562">
+        <v>3</v>
+      </c>
+      <c r="D562">
+        <v>0</v>
+      </c>
+      <c r="E562">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F562">
+        <v>3</v>
+      </c>
+      <c r="G562" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H562" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I562" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J562" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K562">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A563" t="s">
+        <v>12</v>
+      </c>
+      <c r="B563">
+        <v>27</v>
+      </c>
+      <c r="C563">
+        <v>3</v>
+      </c>
+      <c r="D563">
+        <v>5</v>
+      </c>
+      <c r="E563">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F563">
+        <v>3</v>
+      </c>
+      <c r="G563" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H563" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I563" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J563" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K563">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="564" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A564" t="s">
+        <v>12</v>
+      </c>
+      <c r="B564">
+        <v>27</v>
+      </c>
+      <c r="C564">
+        <v>3</v>
+      </c>
+      <c r="D564">
+        <v>10</v>
+      </c>
+      <c r="E564">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F564">
+        <v>3</v>
+      </c>
+      <c r="G564" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H564" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I564" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J564" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K564">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A565" t="s">
+        <v>12</v>
+      </c>
+      <c r="B565">
+        <v>27</v>
+      </c>
+      <c r="C565">
+        <v>3</v>
+      </c>
+      <c r="D565">
+        <v>15</v>
+      </c>
+      <c r="E565">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F565">
+        <v>3</v>
+      </c>
+      <c r="G565" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H565" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I565" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J565" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K565">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="566" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A566" t="s">
+        <v>12</v>
+      </c>
+      <c r="B566">
+        <v>27</v>
+      </c>
+      <c r="C566">
+        <v>3</v>
+      </c>
+      <c r="D566">
+        <v>20</v>
+      </c>
+      <c r="E566">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F566">
+        <v>3</v>
+      </c>
+      <c r="G566" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H566" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I566" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J566" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K566">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="567" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A567" t="s">
+        <v>12</v>
+      </c>
+      <c r="B567">
+        <v>27</v>
+      </c>
+      <c r="C567">
+        <v>3</v>
+      </c>
+      <c r="D567">
+        <v>25</v>
+      </c>
+      <c r="E567">
+        <v>0.114</v>
+      </c>
+      <c r="F567">
+        <v>3</v>
+      </c>
+      <c r="G567" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H567" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I567" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J567" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K567">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A568" t="s">
+        <v>12</v>
+      </c>
+      <c r="B568">
+        <v>27</v>
+      </c>
+      <c r="C568">
+        <v>3</v>
+      </c>
+      <c r="D568">
+        <v>30</v>
+      </c>
+      <c r="E568">
+        <v>0.13</v>
+      </c>
+      <c r="F568">
+        <v>3</v>
+      </c>
+      <c r="G568" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H568" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I568" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J568" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K568">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A569" t="s">
+        <v>13</v>
+      </c>
+      <c r="B569">
+        <v>27</v>
+      </c>
+      <c r="C569">
+        <v>3</v>
+      </c>
+      <c r="D569">
+        <v>0</v>
+      </c>
+      <c r="E569">
+        <v>0.01</v>
+      </c>
+      <c r="F569">
+        <v>3</v>
+      </c>
+      <c r="G569" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H569" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I569" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J569" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K569">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A570" t="s">
+        <v>13</v>
+      </c>
+      <c r="B570">
+        <v>27</v>
+      </c>
+      <c r="C570">
+        <v>3</v>
+      </c>
+      <c r="D570">
+        <v>5</v>
+      </c>
+      <c r="E570">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F570">
+        <v>3</v>
+      </c>
+      <c r="G570" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H570" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I570" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J570" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K570">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A571" t="s">
+        <v>13</v>
+      </c>
+      <c r="B571">
+        <v>27</v>
+      </c>
+      <c r="C571">
+        <v>3</v>
+      </c>
+      <c r="D571">
+        <v>10</v>
+      </c>
+      <c r="E571">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F571">
+        <v>3</v>
+      </c>
+      <c r="G571" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H571" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I571" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J571" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K571">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="572" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A572" t="s">
+        <v>13</v>
+      </c>
+      <c r="B572">
+        <v>27</v>
+      </c>
+      <c r="C572">
+        <v>3</v>
+      </c>
+      <c r="D572">
+        <v>15</v>
+      </c>
+      <c r="E572">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F572">
+        <v>3</v>
+      </c>
+      <c r="G572" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H572" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I572" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J572" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K572">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A573" t="s">
+        <v>13</v>
+      </c>
+      <c r="B573">
+        <v>27</v>
+      </c>
+      <c r="C573">
+        <v>3</v>
+      </c>
+      <c r="D573">
+        <v>20</v>
+      </c>
+      <c r="E573">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F573">
+        <v>3</v>
+      </c>
+      <c r="G573" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H573" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I573" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J573" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K573">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A574" t="s">
+        <v>13</v>
+      </c>
+      <c r="B574">
+        <v>27</v>
+      </c>
+      <c r="C574">
+        <v>3</v>
+      </c>
+      <c r="D574">
+        <v>25</v>
+      </c>
+      <c r="E574">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F574">
+        <v>3</v>
+      </c>
+      <c r="G574" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H574" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I574" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J574" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K574">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A575" t="s">
+        <v>13</v>
+      </c>
+      <c r="B575">
+        <v>27</v>
+      </c>
+      <c r="C575">
+        <v>3</v>
+      </c>
+      <c r="D575">
+        <v>30</v>
+      </c>
+      <c r="E575">
+        <v>0.06</v>
+      </c>
+      <c r="F575">
+        <v>3</v>
+      </c>
+      <c r="G575" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H575" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I575" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J575" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K575">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A576" t="s">
+        <v>11</v>
+      </c>
+      <c r="B576">
+        <v>30</v>
+      </c>
+      <c r="C576">
+        <v>4</v>
+      </c>
+      <c r="D576">
+        <v>0</v>
+      </c>
+      <c r="E576">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F576">
+        <v>3</v>
+      </c>
+      <c r="G576" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H576" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I576" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J576" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K576">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="577" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A577" t="s">
+        <v>11</v>
+      </c>
+      <c r="B577">
+        <v>30</v>
+      </c>
+      <c r="C577">
+        <v>4</v>
+      </c>
+      <c r="D577">
+        <v>5</v>
+      </c>
+      <c r="E577">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F577">
+        <v>3</v>
+      </c>
+      <c r="G577" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H577" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I577" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J577" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K577">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="578" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A578" t="s">
+        <v>11</v>
+      </c>
+      <c r="B578">
+        <v>30</v>
+      </c>
+      <c r="C578">
+        <v>4</v>
+      </c>
+      <c r="D578">
+        <v>10</v>
+      </c>
+      <c r="E578">
+        <v>0.04</v>
+      </c>
+      <c r="F578">
+        <v>3</v>
+      </c>
+      <c r="G578" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H578" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I578" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J578" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K578">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A579" t="s">
+        <v>11</v>
+      </c>
+      <c r="B579">
+        <v>30</v>
+      </c>
+      <c r="C579">
+        <v>4</v>
+      </c>
+      <c r="D579">
+        <v>15</v>
+      </c>
+      <c r="E579">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F579">
+        <v>3</v>
+      </c>
+      <c r="G579" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H579" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I579" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J579" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K579">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A580" t="s">
+        <v>11</v>
+      </c>
+      <c r="B580">
+        <v>30</v>
+      </c>
+      <c r="C580">
+        <v>4</v>
+      </c>
+      <c r="D580">
+        <v>20</v>
+      </c>
+      <c r="E580">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F580">
+        <v>3</v>
+      </c>
+      <c r="G580" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H580" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I580" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J580" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K580">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A581" t="s">
+        <v>11</v>
+      </c>
+      <c r="B581">
+        <v>30</v>
+      </c>
+      <c r="C581">
+        <v>4</v>
+      </c>
+      <c r="D581">
+        <v>25</v>
+      </c>
+      <c r="E581">
+        <v>0.05</v>
+      </c>
+      <c r="F581">
+        <v>3</v>
+      </c>
+      <c r="G581" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H581" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I581" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J581" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K581">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A582" t="s">
+        <v>11</v>
+      </c>
+      <c r="B582">
+        <v>30</v>
+      </c>
+      <c r="C582">
+        <v>4</v>
+      </c>
+      <c r="D582">
+        <v>30</v>
+      </c>
+      <c r="E582">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F582">
+        <v>3</v>
+      </c>
+      <c r="G582" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H582" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I582" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J582" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K582">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="583" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A583" t="s">
+        <v>12</v>
+      </c>
+      <c r="B583">
+        <v>30</v>
+      </c>
+      <c r="C583">
+        <v>4</v>
+      </c>
+      <c r="D583">
+        <v>0</v>
+      </c>
+      <c r="E583">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F583">
+        <v>3</v>
+      </c>
+      <c r="G583" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H583" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I583" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J583" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K583">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="584" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A584" t="s">
+        <v>12</v>
+      </c>
+      <c r="B584">
+        <v>30</v>
+      </c>
+      <c r="C584">
+        <v>4</v>
+      </c>
+      <c r="D584">
+        <v>5</v>
+      </c>
+      <c r="E584">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F584">
+        <v>3</v>
+      </c>
+      <c r="G584" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H584" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I584" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J584" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K584">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="585" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A585" t="s">
+        <v>12</v>
+      </c>
+      <c r="B585">
+        <v>30</v>
+      </c>
+      <c r="C585">
+        <v>4</v>
+      </c>
+      <c r="D585">
+        <v>10</v>
+      </c>
+      <c r="E585">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F585">
+        <v>3</v>
+      </c>
+      <c r="G585" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H585" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I585" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J585" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K585">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A586" t="s">
+        <v>12</v>
+      </c>
+      <c r="B586">
+        <v>30</v>
+      </c>
+      <c r="C586">
+        <v>4</v>
+      </c>
+      <c r="D586">
+        <v>15</v>
+      </c>
+      <c r="E586">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F586">
+        <v>3</v>
+      </c>
+      <c r="G586" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H586" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I586" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J586" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K586">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="587" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A587" t="s">
+        <v>12</v>
+      </c>
+      <c r="B587">
+        <v>30</v>
+      </c>
+      <c r="C587">
+        <v>4</v>
+      </c>
+      <c r="D587">
+        <v>20</v>
+      </c>
+      <c r="E587">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F587">
+        <v>3</v>
+      </c>
+      <c r="G587" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H587" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I587" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J587" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K587">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A588" t="s">
+        <v>12</v>
+      </c>
+      <c r="B588">
+        <v>30</v>
+      </c>
+      <c r="C588">
+        <v>4</v>
+      </c>
+      <c r="D588">
+        <v>25</v>
+      </c>
+      <c r="E588">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F588">
+        <v>3</v>
+      </c>
+      <c r="G588" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H588" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I588" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J588" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K588">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A589" t="s">
+        <v>12</v>
+      </c>
+      <c r="B589">
+        <v>30</v>
+      </c>
+      <c r="C589">
+        <v>4</v>
+      </c>
+      <c r="D589">
+        <v>30</v>
+      </c>
+      <c r="E589">
+        <v>0.11</v>
+      </c>
+      <c r="F589">
+        <v>3</v>
+      </c>
+      <c r="G589" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H589" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I589" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J589" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K589">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A590" t="s">
+        <v>13</v>
+      </c>
+      <c r="B590">
+        <v>30</v>
+      </c>
+      <c r="C590">
+        <v>4</v>
+      </c>
+      <c r="D590">
+        <v>0</v>
+      </c>
+      <c r="E590">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F590">
+        <v>3</v>
+      </c>
+      <c r="G590" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H590" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I590" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J590" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K590">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A591" t="s">
+        <v>13</v>
+      </c>
+      <c r="B591">
+        <v>30</v>
+      </c>
+      <c r="C591">
+        <v>4</v>
+      </c>
+      <c r="D591">
+        <v>5</v>
+      </c>
+      <c r="E591">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F591">
+        <v>3</v>
+      </c>
+      <c r="G591" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H591" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I591" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J591" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K591">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A592" t="s">
+        <v>13</v>
+      </c>
+      <c r="B592">
+        <v>30</v>
+      </c>
+      <c r="C592">
+        <v>4</v>
+      </c>
+      <c r="D592">
+        <v>10</v>
+      </c>
+      <c r="E592">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F592">
+        <v>3</v>
+      </c>
+      <c r="G592" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H592" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I592" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J592" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K592">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A593" t="s">
+        <v>13</v>
+      </c>
+      <c r="B593">
+        <v>30</v>
+      </c>
+      <c r="C593">
+        <v>4</v>
+      </c>
+      <c r="D593">
+        <v>15</v>
+      </c>
+      <c r="E593">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F593">
+        <v>3</v>
+      </c>
+      <c r="G593" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H593" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I593" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J593" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K593">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A594" t="s">
+        <v>13</v>
+      </c>
+      <c r="B594">
+        <v>30</v>
+      </c>
+      <c r="C594">
+        <v>4</v>
+      </c>
+      <c r="D594">
+        <v>20</v>
+      </c>
+      <c r="E594">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F594">
+        <v>3</v>
+      </c>
+      <c r="G594" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H594" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I594" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J594" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K594">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A595" t="s">
+        <v>13</v>
+      </c>
+      <c r="B595">
+        <v>30</v>
+      </c>
+      <c r="C595">
+        <v>4</v>
+      </c>
+      <c r="D595">
+        <v>25</v>
+      </c>
+      <c r="E595">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F595">
+        <v>3</v>
+      </c>
+      <c r="G595" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H595" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I595" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J595" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K595">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A596" t="s">
+        <v>13</v>
+      </c>
+      <c r="B596">
+        <v>30</v>
+      </c>
+      <c r="C596">
+        <v>4</v>
+      </c>
+      <c r="D596">
+        <v>30</v>
+      </c>
+      <c r="E596">
+        <v>0.06</v>
+      </c>
+      <c r="F596">
+        <v>3</v>
+      </c>
+      <c r="G596" s="1">
+        <v>44312</v>
+      </c>
+      <c r="H596" s="1">
+        <v>44315</v>
+      </c>
+      <c r="I596" s="1">
+        <v>44316</v>
+      </c>
+      <c r="J596" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K596">
+        <v>18561</v>
+      </c>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A597" t="s">
+        <v>11</v>
+      </c>
+      <c r="B597">
+        <v>30</v>
+      </c>
+      <c r="C597">
+        <v>3</v>
+      </c>
+      <c r="D597">
+        <v>0</v>
+      </c>
+      <c r="E597">
+        <v>0.1</v>
+      </c>
+      <c r="F597">
+        <v>5</v>
+      </c>
+      <c r="G597" s="1">
+        <v>44316</v>
+      </c>
+      <c r="H597" s="1">
+        <v>44320</v>
+      </c>
+      <c r="I597" s="1">
+        <v>44321</v>
+      </c>
+      <c r="J597" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K597">
+        <v>17560.5</v>
+      </c>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A598" t="s">
+        <v>11</v>
+      </c>
+      <c r="B598">
+        <v>30</v>
+      </c>
+      <c r="C598">
+        <v>3</v>
+      </c>
+      <c r="D598">
+        <v>5</v>
+      </c>
+      <c r="E598">
+        <v>0.189</v>
+      </c>
+      <c r="F598">
+        <v>5</v>
+      </c>
+      <c r="G598" s="1">
+        <v>44316</v>
+      </c>
+      <c r="H598" s="1">
+        <v>44320</v>
+      </c>
+      <c r="I598" s="1">
+        <v>44321</v>
+      </c>
+      <c r="J598" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K598">
+        <v>17560.5</v>
+      </c>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A599" t="s">
+        <v>11</v>
+      </c>
+      <c r="B599">
+        <v>30</v>
+      </c>
+      <c r="C599">
+        <v>3</v>
+      </c>
+      <c r="D599">
+        <v>10</v>
+      </c>
+      <c r="E599">
+        <v>0.27</v>
+      </c>
+      <c r="F599">
+        <v>5</v>
+      </c>
+      <c r="G599" s="1">
+        <v>44316</v>
+      </c>
+      <c r="H599" s="1">
+        <v>44320</v>
+      </c>
+      <c r="I599" s="1">
+        <v>44321</v>
+      </c>
+      <c r="J599" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K599">
+        <v>17560.5</v>
+      </c>
+    </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A600" t="s">
+        <v>11</v>
+      </c>
+      <c r="B600">
+        <v>30</v>
+      </c>
+      <c r="C600">
+        <v>3</v>
+      </c>
+      <c r="D600">
+        <v>15</v>
+      </c>
+      <c r="E600">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="F600">
+        <v>5</v>
+      </c>
+      <c r="G600" s="1">
+        <v>44316</v>
+      </c>
+      <c r="H600" s="1">
+        <v>44320</v>
+      </c>
+      <c r="I600" s="1">
+        <v>44321</v>
+      </c>
+      <c r="J600" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K600">
+        <v>17560.5</v>
+      </c>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A601" t="s">
+        <v>11</v>
+      </c>
+      <c r="B601">
+        <v>30</v>
+      </c>
+      <c r="C601">
+        <v>3</v>
+      </c>
+      <c r="D601">
+        <v>20</v>
+      </c>
+      <c r="E601">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="F601">
+        <v>5</v>
+      </c>
+      <c r="G601" s="1">
+        <v>44316</v>
+      </c>
+      <c r="H601" s="1">
+        <v>44320</v>
+      </c>
+      <c r="I601" s="1">
+        <v>44321</v>
+      </c>
+      <c r="J601" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K601">
+        <v>17560.5</v>
+      </c>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A602" t="s">
+        <v>11</v>
+      </c>
+      <c r="B602">
+        <v>30</v>
+      </c>
+      <c r="C602">
+        <v>3</v>
+      </c>
+      <c r="D602">
+        <v>25</v>
+      </c>
+      <c r="E602">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="F602">
+        <v>5</v>
+      </c>
+      <c r="G602" s="1">
+        <v>44316</v>
+      </c>
+      <c r="H602" s="1">
+        <v>44320</v>
+      </c>
+      <c r="I602" s="1">
+        <v>44321</v>
+      </c>
+      <c r="J602" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K602">
+        <v>17560.5</v>
+      </c>
+    </row>
+    <row r="603" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A603" t="s">
+        <v>11</v>
+      </c>
+      <c r="B603">
+        <v>30</v>
+      </c>
+      <c r="C603">
+        <v>3</v>
+      </c>
+      <c r="D603">
+        <v>30</v>
+      </c>
+      <c r="E603">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="F603">
+        <v>5</v>
+      </c>
+      <c r="G603" s="1">
+        <v>44316</v>
+      </c>
+      <c r="H603" s="1">
+        <v>44320</v>
+      </c>
+      <c r="I603" s="1">
+        <v>44321</v>
+      </c>
+      <c r="J603" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K603">
+        <v>17560.5</v>
+      </c>
+    </row>
+    <row r="604" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A604" t="s">
+        <v>12</v>
+      </c>
+      <c r="B604">
+        <v>30</v>
+      </c>
+      <c r="C604">
+        <v>3</v>
+      </c>
+      <c r="D604">
+        <v>0</v>
+      </c>
+      <c r="E604">
+        <v>0.01</v>
+      </c>
+      <c r="F604">
+        <v>5</v>
+      </c>
+      <c r="G604" s="1">
+        <v>44316</v>
+      </c>
+      <c r="H604" s="1">
+        <v>44320</v>
+      </c>
+      <c r="I604" s="1">
+        <v>44321</v>
+      </c>
+      <c r="J604" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K604">
+        <v>17560.5</v>
+      </c>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A605" t="s">
+        <v>12</v>
+      </c>
+      <c r="B605">
+        <v>30</v>
+      </c>
+      <c r="C605">
+        <v>3</v>
+      </c>
+      <c r="D605">
+        <v>5</v>
+      </c>
+      <c r="E605">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F605">
+        <v>5</v>
+      </c>
+      <c r="G605" s="1">
+        <v>44316</v>
+      </c>
+      <c r="H605" s="1">
+        <v>44320</v>
+      </c>
+      <c r="I605" s="1">
+        <v>44321</v>
+      </c>
+      <c r="J605" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K605">
+        <v>17560.5</v>
+      </c>
+    </row>
+    <row r="606" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A606" t="s">
+        <v>12</v>
+      </c>
+      <c r="B606">
+        <v>30</v>
+      </c>
+      <c r="C606">
+        <v>3</v>
+      </c>
+      <c r="D606">
+        <v>10</v>
+      </c>
+      <c r="E606">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F606">
+        <v>5</v>
+      </c>
+      <c r="G606" s="1">
+        <v>44316</v>
+      </c>
+      <c r="H606" s="1">
+        <v>44320</v>
+      </c>
+      <c r="I606" s="1">
+        <v>44321</v>
+      </c>
+      <c r="J606" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K606">
+        <v>17560.5</v>
+      </c>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A607" t="s">
+        <v>12</v>
+      </c>
+      <c r="B607">
+        <v>30</v>
+      </c>
+      <c r="C607">
+        <v>3</v>
+      </c>
+      <c r="D607">
+        <v>15</v>
+      </c>
+      <c r="E607">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F607">
+        <v>5</v>
+      </c>
+      <c r="G607" s="1">
+        <v>44316</v>
+      </c>
+      <c r="H607" s="1">
+        <v>44320</v>
+      </c>
+      <c r="I607" s="1">
+        <v>44321</v>
+      </c>
+      <c r="J607" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K607">
+        <v>17560.5</v>
+      </c>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A608" t="s">
+        <v>12</v>
+      </c>
+      <c r="B608">
+        <v>30</v>
+      </c>
+      <c r="C608">
+        <v>3</v>
+      </c>
+      <c r="D608">
+        <v>20</v>
+      </c>
+      <c r="E608">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F608">
+        <v>5</v>
+      </c>
+      <c r="G608" s="1">
+        <v>44316</v>
+      </c>
+      <c r="H608" s="1">
+        <v>44320</v>
+      </c>
+      <c r="I608" s="1">
+        <v>44321</v>
+      </c>
+      <c r="J608" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K608">
+        <v>17560.5</v>
+      </c>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A609" t="s">
+        <v>12</v>
+      </c>
+      <c r="B609">
+        <v>30</v>
+      </c>
+      <c r="C609">
+        <v>3</v>
+      </c>
+      <c r="D609">
+        <v>25</v>
+      </c>
+      <c r="E609">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F609">
+        <v>5</v>
+      </c>
+      <c r="G609" s="1">
+        <v>44316</v>
+      </c>
+      <c r="H609" s="1">
+        <v>44320</v>
+      </c>
+      <c r="I609" s="1">
+        <v>44321</v>
+      </c>
+      <c r="J609" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K609">
+        <v>17560.5</v>
+      </c>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A610" t="s">
+        <v>12</v>
+      </c>
+      <c r="B610">
+        <v>30</v>
+      </c>
+      <c r="C610">
+        <v>3</v>
+      </c>
+      <c r="D610">
+        <v>30</v>
+      </c>
+      <c r="E610">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F610">
+        <v>5</v>
+      </c>
+      <c r="G610" s="1">
+        <v>44316</v>
+      </c>
+      <c r="H610" s="1">
+        <v>44320</v>
+      </c>
+      <c r="I610" s="1">
+        <v>44321</v>
+      </c>
+      <c r="J610" s="1">
+        <v>44341</v>
+      </c>
+      <c r="K610">
+        <v>17560.5</v>
+      </c>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A611" t="s">
+        <v>14</v>
+      </c>
+      <c r="B611" t="s">
+        <v>15</v>
+      </c>
+      <c r="C611">
+        <v>0</v>
+      </c>
+      <c r="D611">
+        <v>0</v>
+      </c>
+      <c r="E611">
+        <v>0</v>
+      </c>
+      <c r="J611" s="1">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A612" t="s">
+        <v>14</v>
+      </c>
+      <c r="B612" t="s">
+        <v>15</v>
+      </c>
+      <c r="C612">
+        <v>0</v>
+      </c>
+      <c r="D612">
+        <v>5</v>
+      </c>
+      <c r="E612">
+        <v>0</v>
+      </c>
+      <c r="J612" s="1">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A613" t="s">
+        <v>14</v>
+      </c>
+      <c r="B613" t="s">
+        <v>15</v>
+      </c>
+      <c r="C613">
+        <v>0</v>
+      </c>
+      <c r="D613">
+        <v>10</v>
+      </c>
+      <c r="E613">
+        <v>1E-3</v>
+      </c>
+      <c r="J613" s="1">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A614" t="s">
+        <v>14</v>
+      </c>
+      <c r="B614" t="s">
+        <v>15</v>
+      </c>
+      <c r="C614">
+        <v>0</v>
+      </c>
+      <c r="D614">
+        <v>15</v>
+      </c>
+      <c r="E614">
+        <v>2E-3</v>
+      </c>
+      <c r="J614" s="1">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A615" t="s">
+        <v>14</v>
+      </c>
+      <c r="B615" t="s">
+        <v>15</v>
+      </c>
+      <c r="C615">
+        <v>0</v>
+      </c>
+      <c r="D615">
+        <v>20</v>
+      </c>
+      <c r="E615">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J615" s="1">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A616" t="s">
+        <v>14</v>
+      </c>
+      <c r="B616" t="s">
+        <v>15</v>
+      </c>
+      <c r="C616">
+        <v>0</v>
+      </c>
+      <c r="D616">
+        <v>25</v>
+      </c>
+      <c r="E616">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J616" s="1">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="617" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A617" t="s">
+        <v>14</v>
+      </c>
+      <c r="B617" t="s">
+        <v>15</v>
+      </c>
+      <c r="C617">
+        <v>0</v>
+      </c>
+      <c r="D617">
+        <v>30</v>
+      </c>
+      <c r="E617">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J617" s="1">
+        <v>44341</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="B1:B478" xr:uid="{80395BA4-49FE-4DA6-B9E2-B0060FAF4037}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PO_Assay_Data_all.xlsx
+++ b/PO_Assay_Data_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linzm\Documents\Hillyer Lab\Hillyer_PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F3A795-1D1A-483B-9EB8-71D3710110C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69C5219-2170-4FE3-92D3-BFE448D48E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{F5BDF2D9-78B4-4F3A-B1D0-220B94154211}"/>
   </bookViews>
@@ -457,7 +457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BFC959-3018-473D-A899-D027EE4BF072}">
   <dimension ref="A1:K617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
       <selection activeCell="H621" sqref="H621"/>
     </sheetView>
   </sheetViews>
